--- a/tests/assets/services_import_100_good.xlsx
+++ b/tests/assets/services_import_100_good.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="846">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -146,12 +146,6 @@
     <t xml:space="preserve">none</t>
   </si>
   <si>
-    <t xml:space="preserve">mhansed0@bandcamp.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://uol.com.br/vel.json?a=dapibus&amp;suscipit=dolor&amp;nulla=vel&amp;elit=est&amp;ac=donec&amp;nulla=odio&amp;sed=justo&amp;vel=sollicitudin&amp;enim=ut&amp;sit=suscipit&amp;amet=a&amp;nunc=feugiat&amp;viverra=et&amp;dapibus=eros&amp;nulla=vestibulum&amp;suscipit=ac&amp;ligula=est&amp;in=lacinia&amp;lacus=nisi&amp;curabitur=venenatis&amp;at=tristique&amp;ipsum=fusce&amp;ac=congue&amp;tellus=diam&amp;semper=id</t>
-  </si>
-  <si>
     <t xml:space="preserve">Donec semper sapien a libero.</t>
   </si>
   <si>
@@ -162,9 +156,6 @@
   </si>
   <si>
     <t xml:space="preserve">activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">active</t>
   </si>
   <si>
     <t xml:space="preserve">Etiam vel augue. Vestibulum rutrum rutrum neque.</t>
@@ -181,9 +172,6 @@
     <t xml:space="preserve">Rhonda Grelak</t>
   </si>
   <si>
-    <t xml:space="preserve">https://psu.edu/ut.json?in=et&amp;felis=magnis&amp;donec=dis&amp;semper=parturient&amp;sapien=montes&amp;a=nascetur&amp;libero=ridiculus&amp;nam=mus&amp;dui=vivamus&amp;proin=vestibulum&amp;leo=sagittis&amp;odio=sapien&amp;porttitor=cum&amp;id=sociis&amp;consequat=natoque&amp;in=penatibus&amp;consequat=et&amp;ut=magnis&amp;nulla=dis&amp;sed=parturient&amp;accumsan=montes&amp;felis=nascetur</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pellentesque viverra pede ac diam. Cras pellentesque volutpat dui.</t>
   </si>
   <si>
@@ -222,12 +210,6 @@
   </si>
   <si>
     <t xml:space="preserve">hguerrieri2@symantec.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hguerrieri2@indiatimes.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://indiegogo.com/tempor/turpis/nec/euismod/scelerisque/quam/turpis.html?nam=sem&amp;dui=sed&amp;proin=sagittis&amp;leo=nam&amp;odio=congue&amp;porttitor=risus&amp;id=semper&amp;consequat=porta&amp;in=volutpat&amp;consequat=quam&amp;ut=pede&amp;nulla=lobortis&amp;sed=ligula&amp;accumsan=sit&amp;felis=amet&amp;ut=eleifend&amp;at=pede&amp;dolor=libero&amp;quis=quis&amp;odio=orci&amp;consequat=nullam&amp;varius=molestie&amp;integer=nibh&amp;ac=in&amp;leo=lectus&amp;pellentesque=pellentesque&amp;ultrices=at&amp;mattis=nulla&amp;odio=suspendisse&amp;donec=potenti&amp;vitae=cras&amp;nisi=in&amp;nam=purus&amp;ultrices=eu&amp;libero=magna&amp;non=vulputate&amp;mattis=luctus&amp;pulvinar=cum&amp;nulla=sociis&amp;pede=natoque&amp;ullamcorper=penatibus&amp;augue=et&amp;a=magnis&amp;suscipit=dis&amp;nulla=parturient&amp;elit=montes&amp;ac=nascetur&amp;nulla=ridiculus&amp;sed=mus&amp;vel=vivamus&amp;enim=vestibulum&amp;sit=sagittis&amp;amet=sapien&amp;nunc=cum&amp;viverra=sociis&amp;dapibus=natoque&amp;nulla=penatibus&amp;suscipit=et&amp;ligula=magnis&amp;in=dis&amp;lacus=parturient&amp;curabitur=montes&amp;at=nascetur&amp;ipsum=ridiculus&amp;ac=mus&amp;tellus=etiam&amp;semper=vel&amp;interdum=augue&amp;mauris=vestibulum&amp;ullamcorper=rutrum&amp;purus=rutrum&amp;sit=neque&amp;amet=aenean&amp;nulla=auctor&amp;quisque=gravida&amp;arcu=sem&amp;libero=praesent&amp;rutrum=id&amp;ac=massa&amp;lobortis=id&amp;vel=nisl&amp;dapibus=venenatis&amp;at=lacinia&amp;diam=aenean&amp;nam=sit</t>
   </si>
   <si>
     <t xml:space="preserve">Vestibulum ac est lacinia nisi venenatis tristique. Fusce congue, diam id ornare imperdiet, sapien urna pretium nisl, ut volutpat sapien arcu sed augue. Aliquam erat volutpat.</t>
@@ -265,9 +247,6 @@
     <t xml:space="preserve">apavelin3@cdbaby.com</t>
   </si>
   <si>
-    <t xml:space="preserve">https://answers.com/platea/dictumst/morbi/vestibulum/velit/id.jsp?cubilia=elit&amp;curae=ac&amp;mauris=nulla&amp;viverra=sed&amp;diam=vel&amp;vitae=enim&amp;quam=sit&amp;suspendisse=amet&amp;potenti=nunc&amp;nullam=viverra&amp;porttitor=dapibus&amp;lacus=nulla&amp;at=suscipit&amp;turpis=ligula&amp;donec=in&amp;posuere=lacus&amp;metus=curabitur&amp;vitae=at&amp;ipsum=ipsum&amp;aliquam=ac&amp;non=tellus&amp;mauris=semper&amp;morbi=interdum&amp;non=mauris&amp;lectus=ullamcorper&amp;aliquam=purus&amp;sit=sit&amp;amet=amet&amp;diam=nulla&amp;in=quisque&amp;magna=arcu&amp;bibendum=libero&amp;imperdiet=rutrum&amp;nullam=ac&amp;orci=lobortis&amp;pede=vel&amp;venenatis=dapibus&amp;non=at&amp;sodales=diam&amp;sed=nam&amp;tincidunt=tristique&amp;eu=tortor&amp;felis=eu&amp;fusce=pede</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cras mi pede, malesuada in, imperdiet et, commodo vulputate, justo. In blandit ultrices enim.</t>
   </si>
   <si>
@@ -294,9 +273,6 @@
   </si>
   <si>
     <t xml:space="preserve">emaccarter4@examiner.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bbb.org/volutpat/convallis/morbi.json?diam=risus&amp;id=dapibus&amp;ornare=augue&amp;imperdiet=vel&amp;sapien=accumsan&amp;urna=tellus&amp;pretium=nisi&amp;nisl=eu&amp;ut=orci&amp;volutpat=mauris&amp;sapien=lacinia&amp;arcu=sapien&amp;sed=quis&amp;augue=libero&amp;aliquam=nullam&amp;erat=sit&amp;volutpat=amet&amp;in=turpis&amp;congue=elementum&amp;etiam=ligula&amp;justo=vehicula&amp;etiam=consequat&amp;pretium=morbi&amp;iaculis=a&amp;justo=ipsum&amp;in=integer&amp;hac=a&amp;habitasse=nibh&amp;platea=in&amp;dictumst=quis&amp;etiam=justo&amp;faucibus=maecenas&amp;cursus=rhoncus&amp;urna=aliquam&amp;ut=lacus&amp;tellus=morbi&amp;nulla=quis&amp;ut=tortor&amp;erat=id&amp;id=nulla&amp;mauris=ultrices&amp;vulputate=aliquet&amp;elementum=maecenas&amp;nullam=leo&amp;varius=odio&amp;nulla=condimentum&amp;facilisi=id&amp;cras=luctus&amp;non=nec&amp;velit=molestie&amp;nec=sed&amp;nisi=justo&amp;vulputate=pellentesque&amp;nonummy=viverra&amp;maecenas=pede&amp;tincidunt=ac&amp;lacus=diam&amp;at=cras&amp;velit=pellentesque&amp;vivamus=volutpat&amp;vel=dui&amp;nulla=maecenas&amp;eget=tristique&amp;eros=est&amp;elementum=et&amp;pellentesque=tempus</t>
   </si>
   <si>
     <t xml:space="preserve">Operative asynchronous flexibility</t>
@@ -334,12 +310,6 @@
     <t xml:space="preserve">mgallehawk5@npr.org</t>
   </si>
   <si>
-    <t xml:space="preserve">shallihan5@usgs.gov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://clickbank.net/iaculis/congue/vivamus/metus.xml?aliquam=lectus&amp;augue=in&amp;quam=est&amp;sollicitudin=risus&amp;vitae=auctor&amp;consectetuer=sed&amp;eget=tristique&amp;rutrum=in&amp;at=tempus&amp;lorem=sit&amp;integer=amet&amp;tincidunt=sem</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cras mi pede, malesuada in, imperdiet et, commodo vulputate, justo.</t>
   </si>
   <si>
@@ -384,9 +354,6 @@
     <t xml:space="preserve">lrontsch6@deliciousdays.com</t>
   </si>
   <si>
-    <t xml:space="preserve">mpetroff6@yandex.ru</t>
-  </si>
-  <si>
     <t xml:space="preserve">Etiam faucibus cursus urna. Ut tellus. Nulla ut erat id mauris vulputate elementum.</t>
   </si>
   <si>
@@ -417,9 +384,6 @@
     <t xml:space="preserve">ssoden7@google.fr</t>
   </si>
   <si>
-    <t xml:space="preserve">ssoden7@parallels.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Integer ac leo. Pellentesque ultrices mattis odio.</t>
   </si>
   <si>
@@ -454,15 +418,6 @@
   </si>
   <si>
     <t xml:space="preserve">id8@flavors.me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pellentesque volutpat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id8@mozilla.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://earthlink.net/nec/euismod/scelerisque/quam/turpis.xml?pede=vel&amp;morbi=pede&amp;porttitor=morbi&amp;lorem=porttitor&amp;id=lorem&amp;ligula=id&amp;suspendisse=ligula&amp;ornare=suspendisse&amp;consequat=ornare&amp;lectus=consequat&amp;in=lectus&amp;est=in&amp;risus=est&amp;auctor=risus&amp;sed=auctor&amp;tristique=sed&amp;in=tristique&amp;tempus=in&amp;sit=tempus&amp;amet=sit&amp;sem=amet</t>
   </si>
   <si>
     <t xml:space="preserve">Duis mattis egestas metus. Aenean fermentum. Donec ut mauris eget massa tempor convallis.</t>
@@ -503,12 +458,6 @@
     <t xml:space="preserve">rgratland9@about.com</t>
   </si>
   <si>
-    <t xml:space="preserve">rgratland9@ifeng.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://europa.eu/pellentesque/quisque/porta/volutpat.jsp?sed=curae&amp;magna=nulla&amp;at=dapibus&amp;nunc=dolor&amp;commodo=vel&amp;placerat=est&amp;praesent=donec&amp;blandit=odio&amp;nam=justo&amp;nulla=sollicitudin&amp;integer=ut&amp;pede=suscipit&amp;justo=a&amp;lacinia=feugiat&amp;eget=et&amp;tincidunt=eros&amp;eget=vestibulum&amp;tempus=ac&amp;vel=est&amp;pede=lacinia&amp;morbi=nisi&amp;porttitor=venenatis&amp;lorem=tristique&amp;id=fusce&amp;ligula=congue&amp;suspendisse=diam&amp;ornare=id&amp;consequat=ornare&amp;lectus=imperdiet&amp;in=sapien&amp;est=urna&amp;risus=pretium&amp;auctor=nisl&amp;sed=ut&amp;tristique=volutpat&amp;in=sapien&amp;tempus=arcu&amp;sit=sed&amp;amet=augue&amp;sem=aliquam&amp;fusce=erat&amp;consequat=volutpat&amp;nulla=in&amp;nisl=congue&amp;nunc=etiam&amp;nisl=justo&amp;duis=etiam&amp;bibendum=pretium&amp;felis=iaculis&amp;sed=justo&amp;interdum=in&amp;venenatis=hac&amp;turpis=habitasse&amp;enim=platea&amp;blandit=dictumst&amp;mi=etiam&amp;in=faucibus&amp;porttitor=cursus&amp;pede=urna&amp;justo=ut&amp;eu=tellus&amp;massa=nulla&amp;donec=ut&amp;dapibus=erat&amp;duis=id&amp;at=mauris&amp;velit=vulputate&amp;eu=elementum&amp;est=nullam&amp;congue=varius&amp;elementum=nulla&amp;in=facilisi&amp;hac=cras&amp;habitasse=non&amp;platea=velit&amp;dictumst=nec&amp;morbi=nisi&amp;vestibulum=vulputate&amp;velit=nonummy&amp;id=maecenas&amp;pretium=tincidunt&amp;iaculis=lacus&amp;diam=at</t>
-  </si>
-  <si>
     <t xml:space="preserve">Optimized transitional instruction set</t>
   </si>
   <si>
@@ -530,9 +479,6 @@
     <t xml:space="preserve">flapsliea@microsoft.com</t>
   </si>
   <si>
-    <t xml:space="preserve">flapsliea@opera.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Morbi ut odio.</t>
   </si>
   <si>
@@ -560,12 +506,6 @@
     <t xml:space="preserve">dkesbyb@mit.edu</t>
   </si>
   <si>
-    <t xml:space="preserve">hmawneb@who.int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://howstuffworks.com/ipsum/dolor/sit/amet/consectetuer/adipiscing/elit.jpg?vivamus=rutrum&amp;tortor=nulla&amp;duis=tellus&amp;mattis=in&amp;egestas=sagittis&amp;metus=dui&amp;aenean=vel&amp;fermentum=nisl&amp;donec=duis&amp;ut=ac&amp;mauris=nibh&amp;eget=fusce&amp;massa=lacus&amp;tempor=purus&amp;convallis=aliquet&amp;nulla=at&amp;neque=feugiat&amp;libero=non&amp;convallis=pretium&amp;eget=quis&amp;eleifend=lectus&amp;luctus=suspendisse&amp;ultricies=potenti&amp;eu=in&amp;nibh=eleifend&amp;quisque=quam&amp;id=a&amp;justo=odio&amp;sit=in&amp;amet=hac&amp;sapien=habitasse&amp;dignissim=platea&amp;vestibulum=dictumst&amp;vestibulum=maecenas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maecenas rhoncus aliquam lacus.</t>
   </si>
   <si>
@@ -591,15 +531,6 @@
   </si>
   <si>
     <t xml:space="preserve">ngradlyc@youtube.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">massa tempor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ngradlyc@sfgate.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://myspace.com/lectus/aliquam.json?potenti=in&amp;nullam=lectus&amp;porttitor=pellentesque&amp;lacus=at&amp;at=nulla&amp;turpis=suspendisse&amp;donec=potenti&amp;posuere=cras&amp;metus=in&amp;vitae=purus&amp;ipsum=eu&amp;aliquam=magna&amp;non=vulputate&amp;mauris=luctus&amp;morbi=cum&amp;non=sociis&amp;lectus=natoque&amp;aliquam=penatibus&amp;sit=et&amp;amet=magnis&amp;diam=dis&amp;in=parturient&amp;magna=montes&amp;bibendum=nascetur&amp;imperdiet=ridiculus&amp;nullam=mus&amp;orci=vivamus&amp;pede=vestibulum&amp;venenatis=sagittis&amp;non=sapien&amp;sodales=cum&amp;sed=sociis&amp;tincidunt=natoque&amp;eu=penatibus&amp;felis=et&amp;fusce=magnis&amp;posuere=dis&amp;felis=parturient&amp;sed=montes&amp;lacus=nascetur&amp;morbi=ridiculus&amp;sem=mus&amp;mauris=etiam&amp;laoreet=vel&amp;ut=augue&amp;rhoncus=vestibulum&amp;aliquet=rutrum&amp;pulvinar=rutrum&amp;sed=neque&amp;nisl=aenean&amp;nunc=auctor&amp;rhoncus=gravida&amp;dui=sem&amp;vel=praesent&amp;sem=id&amp;sed=massa&amp;sagittis=id&amp;nam=nisl&amp;congue=venenatis&amp;risus=lacinia&amp;semper=aenean</t>
   </si>
   <si>
     <t xml:space="preserve">Integer pede justo, lacinia eget, tincidunt eget, tempus vel, pede. Morbi porttitor lorem id ligula. Suspendisse ornare consequat lectus.</t>
@@ -628,9 +559,6 @@
     <t xml:space="preserve">caldersd@fotki.com</t>
   </si>
   <si>
-    <t xml:space="preserve">cubilia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Donec ut dolor. Morbi vel lectus in quam fringilla rhoncus. Mauris enim leo, rhoncus sed, vestibulum sit amet, cursus id, turpis.</t>
   </si>
   <si>
@@ -659,9 +587,6 @@
     <t xml:space="preserve">hcarnegiee@senate.gov</t>
   </si>
   <si>
-    <t xml:space="preserve">hcarnegiee@usatoday.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Praesent blandit lacinia erat. Vestibulum sed magna at nunc commodo placerat. Praesent blandit.</t>
   </si>
   <si>
@@ -690,9 +615,6 @@
   </si>
   <si>
     <t xml:space="preserve">jclowtonf@flavors.me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">swillattsf@psu.edu</t>
   </si>
   <si>
     <t xml:space="preserve">Cras pellentesque volutpat dui. Maecenas tristique, est et tempus semper, est quam pharetra magna, ac consequat metus sapien ut nunc. Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; Mauris viverra diam vitae quam.</t>
@@ -720,12 +642,6 @@
     <t xml:space="preserve">ksalzbergg@howstuffworks.com</t>
   </si>
   <si>
-    <t xml:space="preserve">ksalzbergg@4shared.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://msu.edu/ut.xml?ligula=sociis&amp;nec=natoque&amp;sem=penatibus&amp;duis=et&amp;aliquam=magnis&amp;convallis=dis&amp;nunc=parturient&amp;proin=montes&amp;at=nascetur&amp;turpis=ridiculus&amp;a=mus&amp;pede=vivamus&amp;posuere=vestibulum&amp;nonummy=sagittis&amp;integer=sapien&amp;non=cum&amp;velit=sociis&amp;donec=natoque&amp;diam=penatibus&amp;neque=et&amp;vestibulum=magnis&amp;eget=dis&amp;vulputate=parturient&amp;ut=montes&amp;ultrices=nascetur&amp;vel=ridiculus&amp;augue=mus&amp;vestibulum=etiam&amp;ante=vel&amp;ipsum=augue&amp;primis=vestibulum&amp;in=rutrum&amp;faucibus=rutrum&amp;orci=neque&amp;luctus=aenean&amp;et=auctor&amp;ultrices=gravida&amp;posuere=sem&amp;cubilia=praesent&amp;curae=id&amp;donec=massa&amp;pharetra=id</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vestibulum quam sapien, varius ut, blandit non, interdum in, ante.</t>
   </si>
   <si>
@@ -757,9 +673,6 @@
     <t xml:space="preserve">svitteh@mlb.com</t>
   </si>
   <si>
-    <t xml:space="preserve">http://nature.com/quis/libero/nullam/sit/amet/turpis/elementum.xml?ligula=adipiscing&amp;pellentesque=lorem&amp;ultrices=vitae&amp;phasellus=mattis&amp;id=nibh&amp;sapien=ligula&amp;in=nec&amp;sapien=sem&amp;iaculis=duis&amp;congue=aliquam&amp;vivamus=convallis&amp;metus=nunc&amp;arcu=proin&amp;adipiscing=at&amp;molestie=turpis&amp;hendrerit=a&amp;at=pede&amp;vulputate=posuere&amp;vitae=nonummy&amp;nisl=integer&amp;aenean=non&amp;lectus=velit&amp;pellentesque=donec&amp;eget=diam&amp;nunc=neque&amp;donec=vestibulum&amp;quis=eget&amp;orci=vulputate&amp;eget=ut&amp;orci=ultrices&amp;vehicula=vel&amp;condimentum=augue&amp;curabitur=vestibulum&amp;in=ante&amp;libero=ipsum&amp;ut=primis&amp;massa=in&amp;volutpat=faucibus&amp;convallis=orci&amp;morbi=luctus&amp;odio=et&amp;odio=ultrices&amp;elementum=posuere&amp;eu=cubilia&amp;interdum=curae&amp;eu=donec&amp;tincidunt=pharetra&amp;in=magna&amp;leo=vestibulum&amp;maecenas=aliquet&amp;pulvinar=ultrices&amp;lobortis=erat&amp;est=tortor&amp;phasellus=sollicitudin&amp;sit=mi&amp;amet=sit&amp;erat=amet&amp;nulla=lobortis&amp;tempus=sapien&amp;vivamus=sapien&amp;in=non&amp;felis=mi&amp;eu=integer&amp;sapien=ac&amp;cursus=neque&amp;vestibulum=duis&amp;proin=bibendum&amp;eu=morbi&amp;mi=non&amp;nulla=quam&amp;ac=nec&amp;enim=dui&amp;in=luctus&amp;tempor=rutrum&amp;turpis=nulla&amp;nec=tellus&amp;euismod=in&amp;scelerisque=sagittis&amp;quam=dui&amp;turpis=vel&amp;adipiscing=nisl&amp;lorem=duis&amp;vitae=ac&amp;mattis=nibh&amp;nibh=fusce&amp;ligula=lacus&amp;nec=purus&amp;sem=aliquet&amp;duis=at&amp;aliquam=feugiat&amp;convallis=non&amp;nunc=pretium&amp;proin=quis&amp;at=lectus&amp;turpis=suspendisse&amp;a=potenti</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nam dui.</t>
   </si>
   <si>
@@ -791,9 +704,6 @@
   </si>
   <si>
     <t xml:space="preserve">blei@webeden.co.uk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blei@upenn.edu</t>
   </si>
   <si>
     <t xml:space="preserve">In hac habitasse platea dictumst. Etiam faucibus cursus urna. Ut tellus.</t>
@@ -822,12 +732,6 @@
   </si>
   <si>
     <t xml:space="preserve">mcongrevej@state.tx.us</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mcongrevej@networksolutions.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://yellowbook.com/donec.js?id=pulvinar&amp;nisl=nulla&amp;venenatis=pede&amp;lacinia=ullamcorper&amp;aenean=augue&amp;sit=a&amp;amet=suscipit&amp;justo=nulla&amp;morbi=elit&amp;ut=ac&amp;odio=nulla&amp;cras=sed&amp;mi=vel&amp;pede=enim&amp;malesuada=sit&amp;in=amet&amp;imperdiet=nunc&amp;et=viverra&amp;commodo=dapibus&amp;vulputate=nulla&amp;justo=suscipit&amp;in=ligula&amp;blandit=in&amp;ultrices=lacus&amp;enim=curabitur&amp;lorem=at&amp;ipsum=ipsum&amp;dolor=ac&amp;sit=tellus&amp;amet=semper&amp;consectetuer=interdum&amp;adipiscing=mauris&amp;elit=ullamcorper&amp;proin=purus&amp;interdum=sit&amp;mauris=amet</t>
   </si>
   <si>
     <t xml:space="preserve">Vivamus tortor. Duis mattis egestas metus. Aenean fermentum.</t>
@@ -859,9 +763,6 @@
     <t xml:space="preserve">ohawardenk@jiathis.com</t>
   </si>
   <si>
-    <t xml:space="preserve">http://marketwatch.com/amet/lobortis/sapien/sapien.png?accumsan=iaculis&amp;tortor=diam&amp;quis=erat&amp;turpis=fermentum&amp;sed=justo&amp;ante=nec&amp;vivamus=condimentum&amp;tortor=neque&amp;duis=sapien&amp;mattis=placerat&amp;egestas=ante&amp;metus=nulla&amp;aenean=justo&amp;fermentum=aliquam&amp;donec=quis&amp;ut=turpis&amp;mauris=eget&amp;eget=elit&amp;massa=sodales&amp;tempor=scelerisque&amp;convallis=mauris&amp;nulla=sit&amp;neque=amet&amp;libero=eros&amp;convallis=suspendisse&amp;eget=accumsan&amp;eleifend=tortor&amp;luctus=quis&amp;ultricies=turpis&amp;eu=sed&amp;nibh=ante&amp;quisque=vivamus&amp;id=tortor&amp;justo=duis&amp;sit=mattis&amp;amet=egestas&amp;sapien=metus&amp;dignissim=aenean&amp;vestibulum=fermentum&amp;vestibulum=donec&amp;ante=ut&amp;ipsum=mauris&amp;primis=eget&amp;in=massa&amp;faucibus=tempor&amp;orci=convallis&amp;luctus=nulla&amp;et=neque&amp;ultrices=libero&amp;posuere=convallis&amp;cubilia=eget&amp;curae=eleifend&amp;nulla=luctus&amp;dapibus=ultricies&amp;dolor=eu&amp;vel=nibh&amp;est=quisque&amp;donec=id&amp;odio=justo&amp;justo=sit&amp;sollicitudin=amet&amp;ut=sapien</t>
-  </si>
-  <si>
     <t xml:space="preserve">Suspendisse potenti. In eleifend quam a odio.</t>
   </si>
   <si>
@@ -893,9 +794,6 @@
     <t xml:space="preserve">cjakubowskyl@reuters.com</t>
   </si>
   <si>
-    <t xml:space="preserve">http://sina.com.cn/et/eros/vestibulum/ac/est/lacinia/nisi.js?nec=justo&amp;euismod=eu&amp;scelerisque=massa&amp;quam=donec&amp;turpis=dapibus&amp;adipiscing=duis&amp;lorem=at&amp;vitae=velit&amp;mattis=eu&amp;nibh=est&amp;ligula=congue&amp;nec=elementum&amp;sem=in&amp;duis=hac&amp;aliquam=habitasse&amp;convallis=platea&amp;nunc=dictumst&amp;proin=morbi&amp;at=vestibulum&amp;turpis=velit&amp;a=id&amp;pede=pretium&amp;posuere=iaculis&amp;nonummy=diam&amp;integer=erat&amp;non=fermentum&amp;velit=justo&amp;donec=nec&amp;diam=condimentum&amp;neque=neque&amp;vestibulum=sapien&amp;eget=placerat&amp;vulputate=ante&amp;ut=nulla&amp;ultrices=justo&amp;vel=aliquam&amp;augue=quis&amp;vestibulum=turpis&amp;ante=eget&amp;ipsum=elit&amp;primis=sodales&amp;in=scelerisque&amp;faucibus=mauris&amp;orci=sit&amp;luctus=amet&amp;et=eros&amp;ultrices=suspendisse&amp;posuere=accumsan&amp;cubilia=tortor&amp;curae=quis&amp;donec=turpis&amp;pharetra=sed&amp;magna=ante&amp;vestibulum=vivamus&amp;aliquet=tortor&amp;ultrices=duis&amp;erat=mattis&amp;tortor=egestas&amp;sollicitudin=metus&amp;mi=aenean&amp;sit=fermentum&amp;amet=donec&amp;lobortis=ut&amp;sapien=mauris&amp;sapien=eget&amp;non=massa&amp;mi=tempor&amp;integer=convallis&amp;ac=nulla&amp;neque=neque&amp;duis=libero&amp;bibendum=convallis&amp;morbi=eget&amp;non=eleifend&amp;quam=luctus&amp;nec=ultricies&amp;dui=eu&amp;luctus=nibh&amp;rutrum=quisque&amp;nulla=id</t>
-  </si>
-  <si>
     <t xml:space="preserve">In hac habitasse platea dictumst. Aliquam augue quam, sollicitudin vitae, consectetuer eget, rutrum at, lorem. Integer tincidunt ante vel ipsum.</t>
   </si>
   <si>
@@ -915,9 +813,6 @@
   </si>
   <si>
     <t xml:space="preserve">hclellem@theatlantic.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://desdev.cn/ut/at/dolor/quis/odio/consequat.js?turpis=nulla&amp;a=sed&amp;pede=accumsan&amp;posuere=felis&amp;nonummy=ut&amp;integer=at&amp;non=dolor&amp;velit=quis&amp;donec=odio&amp;diam=consequat&amp;neque=varius&amp;vestibulum=integer&amp;eget=ac&amp;vulputate=leo&amp;ut=pellentesque&amp;ultrices=ultrices&amp;vel=mattis&amp;augue=odio&amp;vestibulum=donec&amp;ante=vitae&amp;ipsum=nisi&amp;primis=nam&amp;in=ultrices&amp;faucibus=libero&amp;orci=non&amp;luctus=mattis&amp;et=pulvinar&amp;ultrices=nulla&amp;posuere=pede&amp;cubilia=ullamcorper&amp;curae=augue&amp;donec=a&amp;pharetra=suscipit&amp;magna=nulla&amp;vestibulum=elit&amp;aliquet=ac&amp;ultrices=nulla&amp;erat=sed&amp;tortor=vel&amp;sollicitudin=enim&amp;mi=sit&amp;sit=amet&amp;amet=nunc&amp;lobortis=viverra&amp;sapien=dapibus&amp;sapien=nulla&amp;non=suscipit&amp;mi=ligula&amp;integer=in&amp;ac=lacus&amp;neque=curabitur&amp;duis=at&amp;bibendum=ipsum&amp;morbi=ac&amp;non=tellus&amp;quam=semper&amp;nec=interdum&amp;dui=mauris&amp;luctus=ullamcorper&amp;rutrum=purus&amp;nulla=sit&amp;tellus=amet&amp;in=nulla&amp;sagittis=quisque&amp;dui=arcu&amp;vel=libero</t>
   </si>
   <si>
     <t xml:space="preserve">Morbi ut odio. Cras mi pede, malesuada in, imperdiet et, commodo vulputate, justo. In blandit ultrices enim.</t>
@@ -977,9 +872,6 @@
     <t xml:space="preserve">ccappo@google.ru</t>
   </si>
   <si>
-    <t xml:space="preserve">https://youtu.be/massa/id/lobortis/convallis/tortor/risus.jsp?sapien=in&amp;cursus=magna&amp;vestibulum=bibendum&amp;proin=imperdiet&amp;eu=nullam&amp;mi=orci&amp;nulla=pede&amp;ac=venenatis&amp;enim=non&amp;in=sodales</t>
-  </si>
-  <si>
     <t xml:space="preserve">Morbi quis tortor id nulla ultrices aliquet.</t>
   </si>
   <si>
@@ -1005,12 +897,6 @@
   </si>
   <si>
     <t xml:space="preserve">chalcrop@meetup.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chalcrop@ow.ly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://youtu.be/ultrices/libero/non/mattis/pulvinar/nulla/pede.png?sapien=semper&amp;placerat=sapien&amp;ante=a&amp;nulla=libero&amp;justo=nam&amp;aliquam=dui&amp;quis=proin&amp;turpis=leo&amp;eget=odio&amp;elit=porttitor&amp;sodales=id&amp;scelerisque=consequat&amp;mauris=in&amp;sit=consequat&amp;amet=ut&amp;eros=nulla&amp;suspendisse=sed&amp;accumsan=accumsan&amp;tortor=felis&amp;quis=ut&amp;turpis=at&amp;sed=dolor&amp;ante=quis&amp;vivamus=odio&amp;tortor=consequat&amp;duis=varius&amp;mattis=integer&amp;egestas=ac&amp;metus=leo&amp;aenean=pellentesque&amp;fermentum=ultrices&amp;donec=mattis&amp;ut=odio&amp;mauris=donec</t>
   </si>
   <si>
     <t xml:space="preserve">Integer ac neque. Duis bibendum. Morbi non quam nec dui luctus rutrum.</t>
@@ -1039,9 +925,6 @@
     <t xml:space="preserve">nwherryq@yahoo.com</t>
   </si>
   <si>
-    <t xml:space="preserve">psisseq@cam.ac.uk</t>
-  </si>
-  <si>
     <t xml:space="preserve">Integer ac neque.</t>
   </si>
   <si>
@@ -1093,9 +976,6 @@
     <t xml:space="preserve">fhatreys@google.it</t>
   </si>
   <si>
-    <t xml:space="preserve">https://chronoengine.com/primis/in/faucibus/orci.html?in=mauris&amp;faucibus=sit&amp;orci=amet&amp;luctus=eros&amp;et=suspendisse&amp;ultrices=accumsan</t>
-  </si>
-  <si>
     <t xml:space="preserve">Integer ac neque. Duis bibendum.</t>
   </si>
   <si>
@@ -1121,9 +1001,6 @@
   </si>
   <si>
     <t xml:space="preserve">pglassborowt@google.com.hk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dmoz.org/justo/nec/condimentum/neque.jsp?odio=porttitor&amp;justo=lorem&amp;sollicitudin=id&amp;ut=ligula&amp;suscipit=suspendisse&amp;a=ornare&amp;feugiat=consequat&amp;et=lectus&amp;eros=in&amp;vestibulum=est&amp;ac=risus&amp;est=auctor&amp;lacinia=sed&amp;nisi=tristique&amp;venenatis=in&amp;tristique=tempus&amp;fusce=sit&amp;congue=amet&amp;diam=sem&amp;id=fusce&amp;ornare=consequat&amp;imperdiet=nulla&amp;sapien=nisl&amp;urna=nunc&amp;pretium=nisl&amp;nisl=duis&amp;ut=bibendum&amp;volutpat=felis&amp;sapien=sed&amp;arcu=interdum&amp;sed=venenatis&amp;augue=turpis&amp;aliquam=enim&amp;erat=blandit&amp;volutpat=mi&amp;in=in&amp;congue=porttitor&amp;etiam=pede&amp;justo=justo&amp;etiam=eu&amp;pretium=massa&amp;iaculis=donec&amp;justo=dapibus&amp;in=duis&amp;hac=at&amp;habitasse=velit&amp;platea=eu&amp;dictumst=est&amp;etiam=congue&amp;faucibus=elementum&amp;cursus=in&amp;urna=hac&amp;ut=habitasse&amp;tellus=platea&amp;nulla=dictumst&amp;ut=morbi&amp;erat=vestibulum&amp;id=velit&amp;mauris=id&amp;vulputate=pretium&amp;elementum=iaculis&amp;nullam=diam&amp;varius=erat&amp;nulla=fermentum&amp;facilisi=justo&amp;cras=nec</t>
   </si>
   <si>
     <t xml:space="preserve">Nulla tellus.</t>
@@ -1152,9 +1029,6 @@
     <t xml:space="preserve">cfenichu@ebay.com</t>
   </si>
   <si>
-    <t xml:space="preserve">cfenichu@nps.gov</t>
-  </si>
-  <si>
     <t xml:space="preserve">Suspendisse accumsan tortor quis turpis. Sed ante.</t>
   </si>
   <si>
@@ -1176,9 +1050,6 @@
     <t xml:space="preserve">fdismorev@barnesandnoble.com</t>
   </si>
   <si>
-    <t xml:space="preserve">https://princeton.edu/commodo.json?quis=condimentum&amp;lectus=id&amp;suspendisse=luctus&amp;potenti=nec&amp;in=molestie&amp;eleifend=sed&amp;quam=justo&amp;a=pellentesque&amp;odio=viverra&amp;in=pede&amp;hac=ac&amp;habitasse=diam&amp;platea=cras&amp;dictumst=pellentesque&amp;maecenas=volutpat&amp;ut=dui&amp;massa=maecenas&amp;quis=tristique&amp;augue=est&amp;luctus=et&amp;tincidunt=tempus&amp;nulla=semper&amp;mollis=est&amp;molestie=quam&amp;lorem=pharetra&amp;quisque=magna&amp;ut=ac&amp;erat=consequat&amp;curabitur=metus&amp;gravida=sapien&amp;nisi=ut&amp;at=nunc&amp;nibh=vestibulum&amp;in=ante&amp;hac=ipsum&amp;habitasse=primis&amp;platea=in&amp;dictumst=faucibus&amp;aliquam=orci&amp;augue=luctus&amp;quam=et&amp;sollicitudin=ultrices&amp;vitae=posuere&amp;consectetuer=cubilia&amp;eget=curae&amp;rutrum=mauris&amp;at=viverra&amp;lorem=diam&amp;integer=vitae&amp;tincidunt=quam&amp;ante=suspendisse&amp;vel=potenti&amp;ipsum=nullam&amp;praesent=porttitor&amp;blandit=lacus&amp;lacinia=at&amp;erat=turpis&amp;vestibulum=donec&amp;sed=posuere&amp;magna=metus&amp;at=vitae&amp;nunc=ipsum&amp;commodo=aliquam&amp;placerat=non&amp;praesent=mauris&amp;blandit=morbi&amp;nam=non&amp;nulla=lectus&amp;integer=aliquam&amp;pede=sit&amp;justo=amet&amp;lacinia=diam&amp;eget=in&amp;tincidunt=magna&amp;eget=bibendum&amp;tempus=imperdiet&amp;vel=nullam</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pellentesque eget nunc. Donec quis orci eget orci vehicula condimentum. Curabitur in libero ut massa volutpat convallis.</t>
   </si>
   <si>
@@ -1212,12 +1083,6 @@
     <t xml:space="preserve">fkilsbyw@opensource.org</t>
   </si>
   <si>
-    <t xml:space="preserve">fkilsbyw@forbes.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://marriott.com/hac/habitasse/platea/dictumst/etiam/faucibus.html?quam=suspendisse&amp;nec=accumsan&amp;dui=tortor&amp;luctus=quis&amp;rutrum=turpis&amp;nulla=sed&amp;tellus=ante&amp;in=vivamus&amp;sagittis=tortor&amp;dui=duis&amp;vel=mattis&amp;nisl=egestas&amp;duis=metus&amp;ac=aenean&amp;nibh=fermentum&amp;fusce=donec&amp;lacus=ut&amp;purus=mauris&amp;aliquet=eget&amp;at=massa&amp;feugiat=tempor&amp;non=convallis&amp;pretium=nulla&amp;quis=neque&amp;lectus=libero&amp;suspendisse=convallis&amp;potenti=eget&amp;in=eleifend&amp;eleifend=luctus&amp;quam=ultricies&amp;a=eu&amp;odio=nibh&amp;in=quisque&amp;hac=id&amp;habitasse=justo&amp;platea=sit&amp;dictumst=amet&amp;maecenas=sapien&amp;ut=dignissim&amp;massa=vestibulum&amp;quis=vestibulum&amp;augue=ante&amp;luctus=ipsum&amp;tincidunt=primis&amp;nulla=in&amp;mollis=faucibus&amp;molestie=orci&amp;lorem=luctus&amp;quisque=et&amp;ut=ultrices</t>
-  </si>
-  <si>
     <t xml:space="preserve">Proin leo odio, porttitor id, consequat in, consequat ut, nulla. Sed accumsan felis.</t>
   </si>
   <si>
@@ -1236,9 +1101,6 @@
     <t xml:space="preserve">cshaplandx@ucoz.ru</t>
   </si>
   <si>
-    <t xml:space="preserve">http://nba.com/ligula/pellentesque/ultrices.png?diam=rhoncus&amp;in=aliquam&amp;magna=lacus&amp;bibendum=morbi&amp;imperdiet=quis&amp;nullam=tortor&amp;orci=id&amp;pede=nulla&amp;venenatis=ultrices&amp;non=aliquet&amp;sodales=maecenas&amp;sed=leo&amp;tincidunt=odio&amp;eu=condimentum&amp;felis=id&amp;fusce=luctus&amp;posuere=nec&amp;felis=molestie&amp;sed=sed&amp;lacus=justo&amp;morbi=pellentesque&amp;sem=viverra&amp;mauris=pede&amp;laoreet=ac&amp;ut=diam&amp;rhoncus=cras&amp;aliquet=pellentesque&amp;pulvinar=volutpat&amp;sed=dui&amp;nisl=maecenas&amp;nunc=tristique&amp;rhoncus=est&amp;dui=et&amp;vel=tempus</t>
-  </si>
-  <si>
     <t xml:space="preserve">Suspendisse accumsan tortor quis turpis. Sed ante. Vivamus tortor.</t>
   </si>
   <si>
@@ -1267,12 +1129,6 @@
   </si>
   <si>
     <t xml:space="preserve">nlaurensony@about.me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nlaurensony@earthlink.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://devhub.com/nulla/sed.png?nisi=id&amp;at=ligula&amp;nibh=suspendisse&amp;in=ornare&amp;hac=consequat&amp;habitasse=lectus&amp;platea=in&amp;dictumst=est&amp;aliquam=risus&amp;augue=auctor&amp;quam=sed&amp;sollicitudin=tristique&amp;vitae=in&amp;consectetuer=tempus&amp;eget=sit&amp;rutrum=amet&amp;at=sem&amp;lorem=fusce</t>
   </si>
   <si>
     <t xml:space="preserve">Donec quis orci eget orci vehicula condimentum.</t>
@@ -1307,9 +1163,6 @@
     <t xml:space="preserve">mcurtissz@ihg.com</t>
   </si>
   <si>
-    <t xml:space="preserve">http://cbslocal.com/consequat/metus/sapien.json?pellentesque=justo&amp;at=aliquam&amp;nulla=quis&amp;suspendisse=turpis&amp;potenti=eget&amp;cras=elit&amp;in=sodales&amp;purus=scelerisque&amp;eu=mauris&amp;magna=sit&amp;vulputate=amet&amp;luctus=eros&amp;cum=suspendisse&amp;sociis=accumsan&amp;natoque=tortor&amp;penatibus=quis&amp;et=turpis&amp;magnis=sed&amp;dis=ante&amp;parturient=vivamus&amp;montes=tortor&amp;nascetur=duis&amp;ridiculus=mattis&amp;mus=egestas&amp;vivamus=metus&amp;vestibulum=aenean&amp;sagittis=fermentum&amp;sapien=donec&amp;cum=ut&amp;sociis=mauris&amp;natoque=eget&amp;penatibus=massa&amp;et=tempor&amp;magnis=convallis&amp;dis=nulla&amp;parturient=neque&amp;montes=libero&amp;nascetur=convallis&amp;ridiculus=eget&amp;mus=eleifend&amp;etiam=luctus&amp;vel=ultricies&amp;augue=eu&amp;vestibulum=nibh&amp;rutrum=quisque&amp;rutrum=id&amp;neque=justo&amp;aenean=sit&amp;auctor=amet&amp;gravida=sapien&amp;sem=dignissim&amp;praesent=vestibulum&amp;id=vestibulum&amp;massa=ante&amp;id=ipsum&amp;nisl=primis&amp;venenatis=in&amp;lacinia=faucibus&amp;aenean=orci&amp;sit=luctus&amp;amet=et&amp;justo=ultrices&amp;morbi=posuere&amp;ut=cubilia&amp;odio=curae&amp;cras=nulla&amp;mi=dapibus&amp;pede=dolor&amp;malesuada=vel&amp;in=est&amp;imperdiet=donec&amp;et=odio&amp;commodo=justo&amp;vulputate=sollicitudin&amp;justo=ut&amp;in=suscipit&amp;blandit=a&amp;ultrices=feugiat&amp;enim=et&amp;lorem=eros&amp;ipsum=vestibulum&amp;dolor=ac&amp;sit=est&amp;amet=lacinia&amp;consectetuer=nisi&amp;adipiscing=venenatis&amp;elit=tristique&amp;proin=fusce&amp;interdum=congue&amp;mauris=diam&amp;non=id&amp;ligula=ornare&amp;pellentesque=imperdiet&amp;ultrices=sapien</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mauris lacinia sapien quis libero. Nullam sit amet turpis elementum ligula vehicula consequat.</t>
   </si>
   <si>
@@ -1343,16 +1196,7 @@
     <t xml:space="preserve">rmaceur10@163.com</t>
   </si>
   <si>
-    <t xml:space="preserve">duis bibendum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rmaceur10@dagondesign.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://accuweather.com/nibh/quisque/id.aspx?sem=integer&amp;praesent=aliquet&amp;id=massa&amp;massa=id&amp;id=lobortis&amp;nisl=convallis&amp;venenatis=tortor&amp;lacinia=risus&amp;aenean=dapibus&amp;sit=augue&amp;amet=vel&amp;justo=accumsan&amp;morbi=tellus&amp;ut=nisi&amp;odio=eu&amp;cras=orci&amp;mi=mauris&amp;pede=lacinia&amp;malesuada=sapien&amp;in=quis&amp;imperdiet=libero&amp;et=nullam&amp;commodo=sit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donec diam neque, vestibulum eget, vulputate ut, ultrices vel, augue. Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; Donec pharetra, magna vestibulum aliquet ultrices, erat tortor sollicitudin mi, sit amet lobortis sapien sapien non mi. Integer ac neque.</t>
+    <t xml:space="preserve">Donec diam neque, vestibulum eget, vulputate ut, ultrices vel, augue. Donec pharetra, magna vestibulum aliquet ultrices, erat tortor sollicitudin mi, sit amet lobortis sapien sapien non mi. Integer ac neque.</t>
   </si>
   <si>
     <t xml:space="preserve">Morbi quis tortor id nulla ultrices aliquet. Maecenas leo odio, condimentum id, luctus nec, molestie sed, justo. Pellentesque viverra pede ac diam.</t>
@@ -1383,12 +1227,6 @@
     <t xml:space="preserve">hhaverson11@clickbank.net</t>
   </si>
   <si>
-    <t xml:space="preserve">hhaverson11@altervista.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://infoseek.co.jp/lorem/ipsum.aspx?dictumst=porta&amp;etiam=volutpat&amp;faucibus=quam&amp;cursus=pede&amp;urna=lobortis&amp;ut=ligula&amp;tellus=sit&amp;nulla=amet&amp;ut=eleifend&amp;erat=pede&amp;id=libero&amp;mauris=quis&amp;vulputate=orci&amp;elementum=nullam&amp;nullam=molestie&amp;varius=nibh&amp;nulla=in&amp;facilisi=lectus&amp;cras=pellentesque&amp;non=at&amp;velit=nulla&amp;nec=suspendisse&amp;nisi=potenti&amp;vulputate=cras&amp;nonummy=in&amp;maecenas=purus&amp;tincidunt=eu&amp;lacus=magna&amp;at=vulputate&amp;velit=luctus&amp;vivamus=cum&amp;vel=sociis&amp;nulla=natoque&amp;eget=penatibus&amp;eros=et&amp;elementum=magnis&amp;pellentesque=dis&amp;quisque=parturient&amp;porta=montes&amp;volutpat=nascetur&amp;erat=ridiculus&amp;quisque=mus&amp;erat=vivamus&amp;eros=vestibulum&amp;viverra=sagittis&amp;eget=sapien&amp;congue=cum&amp;eget=sociis&amp;semper=natoque&amp;rutrum=penatibus&amp;nulla=et</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maecenas pulvinar lobortis est. Phasellus sit amet erat.</t>
   </si>
   <si>
@@ -1408,9 +1246,6 @@
   </si>
   <si>
     <t xml:space="preserve">jswancock12@ocn.ne.jp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jswancock12@yale.edu</t>
   </si>
   <si>
     <t xml:space="preserve">Morbi vestibulum, velit id pretium iaculis, diam erat fermentum justo, nec condimentum neque sapien placerat ante.</t>
@@ -1442,12 +1277,6 @@
     <t xml:space="preserve">aseaward13@google.fr</t>
   </si>
   <si>
-    <t xml:space="preserve">aseaward13@bbb.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://vk.com/diam/vitae/quam/suspendisse/potenti.xml?suspendisse=risus&amp;ornare=semper&amp;consequat=porta&amp;lectus=volutpat&amp;in=quam&amp;est=pede&amp;risus=lobortis&amp;auctor=ligula&amp;sed=sit&amp;tristique=amet&amp;in=eleifend&amp;tempus=pede&amp;sit=libero&amp;amet=quis&amp;sem=orci&amp;fusce=nullam&amp;consequat=molestie&amp;nulla=nibh&amp;nisl=in&amp;nunc=lectus&amp;nisl=pellentesque&amp;duis=at&amp;bibendum=nulla&amp;felis=suspendisse&amp;sed=potenti&amp;interdum=cras&amp;venenatis=in&amp;turpis=purus&amp;enim=eu&amp;blandit=magna&amp;mi=vulputate&amp;in=luctus&amp;porttitor=cum&amp;pede=sociis&amp;justo=natoque&amp;eu=penatibus&amp;massa=et&amp;donec=magnis&amp;dapibus=dis&amp;duis=parturient&amp;at=montes&amp;velit=nascetur&amp;eu=ridiculus&amp;est=mus&amp;congue=vivamus&amp;elementum=vestibulum&amp;in=sagittis&amp;hac=sapien&amp;habitasse=cum&amp;platea=sociis&amp;dictumst=natoque&amp;morbi=penatibus</t>
-  </si>
-  <si>
     <t xml:space="preserve">Curabitur gravida nisi at nibh.</t>
   </si>
   <si>
@@ -1475,15 +1304,6 @@
     <t xml:space="preserve">847 916 5250</t>
   </si>
   <si>
-    <t xml:space="preserve">ac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ehuke14@yolasite.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://freewebs.com/posuere/cubilia/curae.jpg?vitae=mollis&amp;nisi=molestie&amp;nam=lorem&amp;ultrices=quisque&amp;libero=ut&amp;non=erat&amp;mattis=curabitur&amp;pulvinar=gravida&amp;nulla=nisi&amp;pede=at&amp;ullamcorper=nibh&amp;augue=in&amp;a=hac&amp;suscipit=habitasse&amp;nulla=platea&amp;elit=dictumst&amp;ac=aliquam&amp;nulla=augue&amp;sed=quam&amp;vel=sollicitudin&amp;enim=vitae&amp;sit=consectetuer&amp;amet=eget&amp;nunc=rutrum&amp;viverra=at&amp;dapibus=lorem&amp;nulla=integer&amp;suscipit=tincidunt&amp;ligula=ante&amp;in=vel&amp;lacus=ipsum&amp;curabitur=praesent</t>
-  </si>
-  <si>
     <t xml:space="preserve">Duis bibendum.</t>
   </si>
   <si>
@@ -1508,12 +1328,6 @@
     <t xml:space="preserve">rdenyagin15@psu.edu</t>
   </si>
   <si>
-    <t xml:space="preserve">rdenyagin15@ustream.tv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://umn.edu/sem/mauris.aspx?praesent=etiam&amp;lectus=faucibus&amp;vestibulum=cursus&amp;quam=urna&amp;sapien=ut&amp;varius=tellus&amp;ut=nulla&amp;blandit=ut&amp;non=erat&amp;interdum=id&amp;in=mauris&amp;ante=vulputate&amp;vestibulum=elementum&amp;ante=nullam&amp;ipsum=varius&amp;primis=nulla&amp;in=facilisi&amp;faucibus=cras&amp;orci=non&amp;luctus=velit&amp;et=nec&amp;ultrices=nisi&amp;posuere=vulputate&amp;cubilia=nonummy&amp;curae=maecenas&amp;duis=tincidunt&amp;faucibus=lacus&amp;accumsan=at&amp;odio=velit&amp;curabitur=vivamus&amp;convallis=vel&amp;duis=nulla&amp;consequat=eget&amp;dui=eros&amp;nec=elementum&amp;nisi=pellentesque&amp;volutpat=quisque&amp;eleifend=porta&amp;donec=volutpat&amp;ut=erat&amp;dolor=quisque&amp;morbi=erat&amp;vel=eros&amp;lectus=viverra&amp;in=eget&amp;quam=congue&amp;fringilla=eget&amp;rhoncus=semper&amp;mauris=rutrum&amp;enim=nulla&amp;leo=nunc&amp;rhoncus=purus&amp;sed=phasellus&amp;vestibulum=in&amp;sit=felis&amp;amet=donec&amp;cursus=semper&amp;id=sapien&amp;turpis=a&amp;integer=libero&amp;aliquet=nam&amp;massa=dui</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nunc nisl. Duis bibendum, felis sed interdum venenatis, turpis enim blandit mi, in porttitor pede justo eu massa. Donec dapibus.</t>
   </si>
   <si>
@@ -1565,12 +1379,6 @@
     <t xml:space="preserve">mbelderfield17@google.ca</t>
   </si>
   <si>
-    <t xml:space="preserve">ntidridge17@tripadvisor.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://washingtonpost.com/sapien/a.aspx?neque=proin&amp;aenean=at&amp;auctor=turpis&amp;gravida=a&amp;sem=pede&amp;praesent=posuere&amp;id=nonummy&amp;massa=integer&amp;id=non&amp;nisl=velit&amp;venenatis=donec&amp;lacinia=diam&amp;aenean=neque&amp;sit=vestibulum&amp;amet=eget&amp;justo=vulputate&amp;morbi=ut&amp;ut=ultrices&amp;odio=vel&amp;cras=augue&amp;mi=vestibulum&amp;pede=ante&amp;malesuada=ipsum&amp;in=primis&amp;imperdiet=in&amp;et=faucibus&amp;commodo=orci&amp;vulputate=luctus&amp;justo=et&amp;in=ultrices&amp;blandit=posuere&amp;ultrices=cubilia&amp;enim=curae&amp;lorem=donec&amp;ipsum=pharetra&amp;dolor=magna&amp;sit=vestibulum&amp;amet=aliquet&amp;consectetuer=ultrices&amp;adipiscing=erat&amp;elit=tortor&amp;proin=sollicitudin&amp;interdum=mi&amp;mauris=sit&amp;non=amet&amp;ligula=lobortis&amp;pellentesque=sapien&amp;ultrices=sapien&amp;phasellus=non&amp;id=mi&amp;sapien=integer&amp;in=ac</t>
-  </si>
-  <si>
     <t xml:space="preserve">User-centric web-enabled hardware</t>
   </si>
   <si>
@@ -1598,9 +1406,6 @@
     <t xml:space="preserve">jgoodhall18@diigo.com</t>
   </si>
   <si>
-    <t xml:space="preserve">gmcindoe18@delicious.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aenean auctor gravida sem. Praesent id massa id nisl venenatis lacinia.</t>
   </si>
   <si>
@@ -1625,15 +1430,6 @@
     <t xml:space="preserve">pgringley19@huffingtonpost.com</t>
   </si>
   <si>
-    <t xml:space="preserve">placerat praesent blandit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jminifie19@shutterfly.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://cdbaby.com/sagittis/dui/vel/nisl/duis/ac.json?quisque=quis&amp;id=libero&amp;justo=nullam&amp;sit=sit&amp;amet=amet&amp;sapien=turpis&amp;dignissim=elementum&amp;vestibulum=ligula&amp;vestibulum=vehicula&amp;ante=consequat&amp;ipsum=morbi&amp;primis=a&amp;in=ipsum&amp;faucibus=integer&amp;orci=a&amp;luctus=nibh&amp;et=in&amp;ultrices=quis&amp;posuere=justo&amp;cubilia=maecenas&amp;curae=rhoncus&amp;nulla=aliquam&amp;dapibus=lacus&amp;dolor=morbi&amp;vel=quis&amp;est=tortor&amp;donec=id&amp;odio=nulla&amp;justo=ultrices&amp;sollicitudin=aliquet&amp;ut=maecenas&amp;suscipit=leo&amp;a=odio&amp;feugiat=condimentum&amp;et=id&amp;eros=luctus&amp;vestibulum=nec&amp;ac=molestie&amp;est=sed&amp;lacinia=justo&amp;nisi=pellentesque&amp;venenatis=viverra&amp;tristique=pede&amp;fusce=ac&amp;congue=diam&amp;diam=cras&amp;id=pellentesque&amp;ornare=volutpat&amp;imperdiet=dui&amp;sapien=maecenas&amp;urna=tristique&amp;pretium=est&amp;nisl=et&amp;ut=tempus&amp;volutpat=semper&amp;sapien=est&amp;arcu=quam&amp;sed=pharetra&amp;augue=magna&amp;aliquam=ac&amp;erat=consequat&amp;volutpat=metus&amp;in=sapien&amp;congue=ut</t>
-  </si>
-  <si>
     <t xml:space="preserve">Morbi vel lectus in quam fringilla rhoncus.</t>
   </si>
   <si>
@@ -1653,9 +1449,6 @@
   </si>
   <si>
     <t xml:space="preserve">aboldra1a@yahoo.co.jp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aboldra1a@nps.gov</t>
   </si>
   <si>
     <t xml:space="preserve">Morbi sem mauris, laoreet ut, rhoncus aliquet, pulvinar sed, nisl. Nunc rhoncus dui vel sem.</t>
@@ -1681,12 +1474,6 @@
   </si>
   <si>
     <t xml:space="preserve">pgebhardt1b@godaddy.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">epudner1b@marriott.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://cbc.ca/tortor/eu/pede.jsp?ut=cubilia&amp;rhoncus=curae&amp;aliquet=donec&amp;pulvinar=pharetra&amp;sed=magna&amp;nisl=vestibulum&amp;nunc=aliquet&amp;rhoncus=ultrices&amp;dui=erat&amp;vel=tortor&amp;sem=sollicitudin&amp;sed=mi&amp;sagittis=sit&amp;nam=amet&amp;congue=lobortis</t>
   </si>
   <si>
     <t xml:space="preserve">Integer non velit.</t>
@@ -1721,15 +1508,6 @@
     <t xml:space="preserve">arichford1c@amazon.com</t>
   </si>
   <si>
-    <t xml:space="preserve">accumsan tellus nisi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arichford1c@engadget.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://nationalgeographic.com/praesent/id/massa.json?pellentesque=aliquet&amp;eget=ultrices&amp;nunc=erat&amp;donec=tortor&amp;quis=sollicitudin&amp;orci=mi&amp;eget=sit&amp;orci=amet&amp;vehicula=lobortis&amp;condimentum=sapien&amp;curabitur=sapien&amp;in=non&amp;libero=mi&amp;ut=integer&amp;massa=ac&amp;volutpat=neque&amp;convallis=duis&amp;morbi=bibendum&amp;odio=morbi&amp;odio=non&amp;elementum=quam&amp;eu=nec&amp;interdum=dui&amp;eu=luctus&amp;tincidunt=rutrum&amp;in=nulla&amp;leo=tellus&amp;maecenas=in&amp;pulvinar=sagittis&amp;lobortis=dui&amp;est=vel&amp;phasellus=nisl&amp;sit=duis&amp;amet=ac&amp;erat=nibh&amp;nulla=fusce&amp;tempus=lacus&amp;vivamus=purus&amp;in=aliquet&amp;felis=at&amp;eu=feugiat&amp;sapien=non&amp;cursus=pretium&amp;vestibulum=quis&amp;proin=lectus&amp;eu=suspendisse&amp;mi=potenti&amp;nulla=in&amp;ac=eleifend&amp;enim=quam&amp;in=a&amp;tempor=odio&amp;turpis=in&amp;nec=hac&amp;euismod=habitasse&amp;scelerisque=platea&amp;quam=dictumst&amp;turpis=maecenas&amp;adipiscing=ut&amp;lorem=massa&amp;vitae=quis&amp;mattis=augue&amp;nibh=luctus&amp;ligula=tincidunt&amp;nec=nulla&amp;sem=mollis&amp;duis=molestie&amp;aliquam=lorem&amp;convallis=quisque&amp;nunc=ut&amp;proin=erat&amp;at=curabitur&amp;turpis=gravida&amp;a=nisi&amp;pede=at&amp;posuere=nibh&amp;nonummy=in&amp;integer=hac&amp;non=habitasse&amp;velit=platea&amp;donec=dictumst&amp;diam=aliquam&amp;neque=augue&amp;vestibulum=quam&amp;eget=sollicitudin&amp;vulputate=vitae&amp;ut=consectetuer&amp;ultrices=eget&amp;vel=rutrum&amp;augue=at&amp;vestibulum=lorem&amp;ante=integer&amp;ipsum=tincidunt&amp;primis=ante&amp;in=vel&amp;faucibus=ipsum&amp;orci=praesent&amp;luctus=blandit</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pre-emptive stable system engine</t>
   </si>
   <si>
@@ -1740,9 +1518,6 @@
   </si>
   <si>
     <t xml:space="preserve">ctoma1d@goo.ne.jp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eedgerton1d@whitehouse.gov</t>
   </si>
   <si>
     <t xml:space="preserve">Morbi ut odio. Cras mi pede, malesuada in, imperdiet et, commodo vulputate, justo.</t>
@@ -1771,12 +1546,6 @@
     <t xml:space="preserve">pstower1e@so-net.ne.jp</t>
   </si>
   <si>
-    <t xml:space="preserve">asponder1e@lulu.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ucsd.edu/amet/consectetuer/adipiscing/elit/proin/risus/praesent.png?scelerisque=mattis</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fusce posuere felis sed lacus. Morbi sem mauris, laoreet ut, rhoncus aliquet, pulvinar sed, nisl. Nunc rhoncus dui vel sem.</t>
   </si>
   <si>
@@ -1820,12 +1589,6 @@
     <t xml:space="preserve">689 704 1345</t>
   </si>
   <si>
-    <t xml:space="preserve">lbrumbie1g@wufoo.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://goo.ne.jp/libero/quis/orci/nullam.aspx?eu=viverra&amp;sapien=eget&amp;cursus=congue&amp;vestibulum=eget&amp;proin=semper&amp;eu=rutrum&amp;mi=nulla&amp;nulla=nunc&amp;ac=purus&amp;enim=phasellus&amp;in=in&amp;tempor=felis&amp;turpis=donec&amp;nec=semper&amp;euismod=sapien&amp;scelerisque=a&amp;quam=libero&amp;turpis=nam&amp;adipiscing=dui&amp;lorem=proin&amp;vitae=leo&amp;mattis=odio&amp;nibh=porttitor&amp;ligula=id&amp;nec=consequat&amp;sem=in&amp;duis=consequat&amp;aliquam=ut&amp;convallis=nulla&amp;nunc=sed&amp;proin=accumsan</t>
-  </si>
-  <si>
     <t xml:space="preserve">Phasellus in felis.</t>
   </si>
   <si>
@@ -1855,9 +1618,6 @@
   </si>
   <si>
     <t xml:space="preserve">ibenstead1h@samsung.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ibenstead1h@google.com.br</t>
   </si>
   <si>
     <t xml:space="preserve">Etiam justo. Etiam pretium iaculis justo.</t>
@@ -1883,12 +1643,6 @@
     <t xml:space="preserve">bspight1i@tinyurl.com</t>
   </si>
   <si>
-    <t xml:space="preserve">dszubert1i@bloglines.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://topsy.com/vestibulum.js?non=ut&amp;lectus=erat&amp;aliquam=id&amp;sit=mauris&amp;amet=vulputate&amp;diam=elementum&amp;in=nullam&amp;magna=varius&amp;bibendum=nulla&amp;imperdiet=facilisi&amp;nullam=cras&amp;orci=non&amp;pede=velit&amp;venenatis=nec&amp;non=nisi&amp;sodales=vulputate&amp;sed=nonummy&amp;tincidunt=maecenas&amp;eu=tincidunt&amp;felis=lacus&amp;fusce=at&amp;posuere=velit&amp;felis=vivamus&amp;sed=vel&amp;lacus=nulla&amp;morbi=eget&amp;sem=eros&amp;mauris=elementum&amp;laoreet=pellentesque&amp;ut=quisque&amp;rhoncus=porta&amp;aliquet=volutpat&amp;pulvinar=erat&amp;sed=quisque&amp;nisl=erat&amp;nunc=eros&amp;rhoncus=viverra&amp;dui=eget&amp;vel=congue&amp;sem=eget&amp;sed=semper&amp;sagittis=rutrum&amp;nam=nulla&amp;congue=nunc&amp;risus=purus&amp;semper=phasellus&amp;porta=in&amp;volutpat=felis&amp;quam=donec&amp;pede=semper&amp;lobortis=sapien&amp;ligula=a&amp;sit=libero&amp;amet=nam&amp;eleifend=dui&amp;pede=proin&amp;libero=leo&amp;quis=odio&amp;orci=porttitor&amp;nullam=id&amp;molestie=consequat&amp;nibh=in&amp;in=consequat&amp;lectus=ut&amp;pellentesque=nulla&amp;at=sed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Duis aliquam convallis nunc. Proin at turpis a pede posuere nonummy. Integer non velit.</t>
   </si>
   <si>
@@ -1907,9 +1661,6 @@
     <t xml:space="preserve">rtomson1j@cdbaby.com</t>
   </si>
   <si>
-    <t xml:space="preserve">http://printfriendly.com/massa/id/lobortis/convallis/tortor/risus.png?nunc=dui&amp;nisl=vel&amp;duis=sem&amp;bibendum=sed&amp;felis=sagittis&amp;sed=nam&amp;interdum=congue&amp;venenatis=risus&amp;turpis=semper&amp;enim=porta&amp;blandit=volutpat&amp;mi=quam&amp;in=pede&amp;porttitor=lobortis&amp;pede=ligula&amp;justo=sit&amp;eu=amet&amp;massa=eleifend&amp;donec=pede&amp;dapibus=libero&amp;duis=quis&amp;at=orci&amp;velit=nullam&amp;eu=molestie&amp;est=nibh&amp;congue=in&amp;elementum=lectus&amp;in=pellentesque&amp;hac=at&amp;habitasse=nulla&amp;platea=suspendisse&amp;dictumst=potenti&amp;morbi=cras&amp;vestibulum=in&amp;velit=purus&amp;id=eu&amp;pretium=magna&amp;iaculis=vulputate&amp;diam=luctus&amp;erat=cum&amp;fermentum=sociis&amp;justo=natoque&amp;nec=penatibus&amp;condimentum=et</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nulla mollis molestie lorem. Quisque ut erat. Curabitur gravida nisi at nibh.</t>
   </si>
   <si>
@@ -1937,15 +1688,6 @@
     <t xml:space="preserve">cberns1k@free.fr</t>
   </si>
   <si>
-    <t xml:space="preserve">auctor gravida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cberns1k@answers.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hugedomains.com/felis/donec/semper/sapien.jpg?cubilia=primis&amp;curae=in&amp;nulla=faucibus&amp;dapibus=orci&amp;dolor=luctus&amp;vel=et&amp;est=ultrices&amp;donec=posuere&amp;odio=cubilia&amp;justo=curae&amp;sollicitudin=nulla&amp;ut=dapibus&amp;suscipit=dolor&amp;a=vel&amp;feugiat=est&amp;et=donec&amp;eros=odio&amp;vestibulum=justo&amp;ac=sollicitudin&amp;est=ut&amp;lacinia=suscipit&amp;nisi=a&amp;venenatis=feugiat&amp;tristique=et&amp;fusce=eros&amp;congue=vestibulum&amp;diam=ac&amp;id=est&amp;ornare=lacinia&amp;imperdiet=nisi&amp;sapien=venenatis&amp;urna=tristique&amp;pretium=fusce&amp;nisl=congue&amp;ut=diam&amp;volutpat=id&amp;sapien=ornare&amp;arcu=imperdiet&amp;sed=sapien&amp;augue=urna&amp;aliquam=pretium&amp;erat=nisl&amp;volutpat=ut&amp;in=volutpat&amp;congue=sapien&amp;etiam=arcu</t>
-  </si>
-  <si>
     <t xml:space="preserve">Proin leo odio, porttitor id, consequat in, consequat ut, nulla. Sed accumsan felis. Ut at dolor quis odio consequat varius.</t>
   </si>
   <si>
@@ -1976,9 +1718,6 @@
     <t xml:space="preserve">jmaccaughey1l@pinterest.com</t>
   </si>
   <si>
-    <t xml:space="preserve">jmaccaughey1l@1und1.de</t>
-  </si>
-  <si>
     <t xml:space="preserve">Re-engineered heuristic concept</t>
   </si>
   <si>
@@ -1992,9 +1731,6 @@
   </si>
   <si>
     <t xml:space="preserve">dcotillard1m@cdc.gov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dcotillard1m@fotki.com</t>
   </si>
   <si>
     <t xml:space="preserve">Front-line system-worthy support</t>
@@ -2011,12 +1747,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://gmpg.org/vel/lectus/in/quam/fringilla/rhoncus.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tsimmank1n@youku.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://slashdot.org/sit/amet/nulla.jpg?ultricies=erat&amp;eu=id&amp;nibh=mauris&amp;quisque=vulputate&amp;id=elementum&amp;justo=nullam&amp;sit=varius&amp;amet=nulla&amp;sapien=facilisi&amp;dignissim=cras&amp;vestibulum=non&amp;vestibulum=velit&amp;ante=nec&amp;ipsum=nisi&amp;primis=vulputate&amp;in=nonummy&amp;faucibus=maecenas&amp;orci=tincidunt&amp;luctus=lacus&amp;et=at&amp;ultrices=velit&amp;posuere=vivamus&amp;cubilia=vel&amp;curae=nulla&amp;nulla=eget&amp;dapibus=eros</t>
   </si>
   <si>
     <t xml:space="preserve">Vivamus vestibulum sagittis sapien. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus. Etiam vel augue.</t>
@@ -2039,15 +1769,6 @@
     <t xml:space="preserve">aguillem1o@elegantthemes.com</t>
   </si>
   <si>
-    <t xml:space="preserve">blandit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rreams1o@cam.ac.uk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://cocolog-nifty.com/donec/odio.json?turpis=in&amp;nec=magna&amp;euismod=bibendum&amp;scelerisque=imperdiet&amp;quam=nullam&amp;turpis=orci&amp;adipiscing=pede&amp;lorem=venenatis&amp;vitae=non&amp;mattis=sodales&amp;nibh=sed&amp;ligula=tincidunt&amp;nec=eu&amp;sem=felis&amp;duis=fusce&amp;aliquam=posuere&amp;convallis=felis&amp;nunc=sed&amp;proin=lacus&amp;at=morbi&amp;turpis=sem&amp;a=mauris&amp;pede=laoreet&amp;posuere=ut&amp;nonummy=rhoncus&amp;integer=aliquet&amp;non=pulvinar&amp;velit=sed&amp;donec=nisl&amp;diam=nunc&amp;neque=rhoncus&amp;vestibulum=dui&amp;eget=vel&amp;vulputate=sem&amp;ut=sed&amp;ultrices=sagittis&amp;vel=nam&amp;augue=congue&amp;vestibulum=risus&amp;ante=semper&amp;ipsum=porta&amp;primis=volutpat&amp;in=quam&amp;faucibus=pede&amp;orci=lobortis&amp;luctus=ligula&amp;et=sit&amp;ultrices=amet&amp;posuere=eleifend&amp;cubilia=pede&amp;curae=libero&amp;donec=quis&amp;pharetra=orci&amp;magna=nullam&amp;vestibulum=molestie&amp;aliquet=nibh&amp;ultrices=in&amp;erat=lectus&amp;tortor=pellentesque&amp;sollicitudin=at&amp;mi=nulla&amp;sit=suspendisse&amp;amet=potenti&amp;lobortis=cras&amp;sapien=in&amp;sapien=purus&amp;non=eu&amp;mi=magna&amp;integer=vulputate&amp;ac=luctus&amp;neque=cum&amp;duis=sociis&amp;bibendum=natoque&amp;morbi=penatibus&amp;non=et&amp;quam=magnis&amp;nec=dis&amp;dui=parturient&amp;luctus=montes&amp;rutrum=nascetur</t>
-  </si>
-  <si>
     <t xml:space="preserve">Integer aliquet, massa id lobortis convallis, tortor risus dapibus augue, vel accumsan tellus nisi eu orci. Mauris lacinia sapien quis libero.</t>
   </si>
   <si>
@@ -2072,12 +1793,6 @@
     <t xml:space="preserve">546 144 1927</t>
   </si>
   <si>
-    <t xml:space="preserve">hplevin1p@hatena.ne.jp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://newsvine.com/a/suscipit/nulla/elit/ac/nulla/sed.png?lobortis=ultrices&amp;ligula=vel&amp;sit=augue&amp;amet=vestibulum&amp;eleifend=ante&amp;pede=ipsum&amp;libero=primis&amp;quis=in&amp;orci=faucibus&amp;nullam=orci&amp;molestie=luctus&amp;nibh=et&amp;in=ultrices&amp;lectus=posuere&amp;pellentesque=cubilia&amp;at=curae&amp;nulla=donec&amp;suspendisse=pharetra&amp;potenti=magna&amp;cras=vestibulum&amp;in=aliquet&amp;purus=ultrices&amp;eu=erat&amp;magna=tortor&amp;vulputate=sollicitudin&amp;luctus=mi&amp;cum=sit&amp;sociis=amet&amp;natoque=lobortis&amp;penatibus=sapien&amp;et=sapien&amp;magnis=non&amp;dis=mi&amp;parturient=integer&amp;montes=ac&amp;nascetur=neque&amp;ridiculus=duis&amp;mus=bibendum&amp;vivamus=morbi&amp;vestibulum=non&amp;sagittis=quam&amp;sapien=nec&amp;cum=dui&amp;sociis=luctus&amp;natoque=rutrum&amp;penatibus=nulla&amp;et=tellus&amp;magnis=in&amp;dis=sagittis&amp;parturient=dui&amp;montes=vel&amp;nascetur=nisl&amp;ridiculus=duis&amp;mus=ac&amp;etiam=nibh</t>
-  </si>
-  <si>
     <t xml:space="preserve">Curabitur in libero ut massa volutpat convallis.</t>
   </si>
   <si>
@@ -2096,12 +1811,6 @@
     <t xml:space="preserve">mtalks1q@deviantart.com</t>
   </si>
   <si>
-    <t xml:space="preserve">mtalks1q@webmd.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://narod.ru/mauris/eget/massa/tempor/convallis/nulla/neque.html?a=morbi&amp;ipsum=vestibulum&amp;integer=velit&amp;a=id&amp;nibh=pretium&amp;in=iaculis&amp;quis=diam&amp;justo=erat&amp;maecenas=fermentum&amp;rhoncus=justo&amp;aliquam=nec&amp;lacus=condimentum&amp;morbi=neque&amp;quis=sapien&amp;tortor=placerat&amp;id=ante&amp;nulla=nulla&amp;ultrices=justo&amp;aliquet=aliquam&amp;maecenas=quis&amp;leo=turpis&amp;odio=eget&amp;condimentum=elit&amp;id=sodales&amp;luctus=scelerisque&amp;nec=mauris&amp;molestie=sit&amp;sed=amet&amp;justo=eros&amp;pellentesque=suspendisse&amp;viverra=accumsan&amp;pede=tortor&amp;ac=quis&amp;diam=turpis&amp;cras=sed&amp;pellentesque=ante&amp;volutpat=vivamus&amp;dui=tortor&amp;maecenas=duis&amp;tristique=mattis&amp;est=egestas&amp;et=metus&amp;tempus=aenean&amp;semper=fermentum&amp;est=donec&amp;quam=ut&amp;pharetra=mauris&amp;magna=eget&amp;ac=massa&amp;consequat=tempor&amp;metus=convallis&amp;sapien=nulla&amp;ut=neque&amp;nunc=libero&amp;vestibulum=convallis&amp;ante=eget&amp;ipsum=eleifend&amp;primis=luctus&amp;in=ultricies&amp;faucibus=eu&amp;orci=nibh&amp;luctus=quisque&amp;et=id&amp;ultrices=justo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sed ante. Vivamus tortor.</t>
   </si>
   <si>
@@ -2124,12 +1833,6 @@
   </si>
   <si>
     <t xml:space="preserve">bwoolliams1r@discovery.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nunc rhoncus dui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://g.co/aliquam/augue.jsp?in=duis&amp;hac=faucibus&amp;habitasse=accumsan&amp;platea=odio&amp;dictumst=curabitur&amp;etiam=convallis&amp;faucibus=duis&amp;cursus=consequat&amp;urna=dui&amp;ut=nec&amp;tellus=nisi&amp;nulla=volutpat&amp;ut=eleifend&amp;erat=donec&amp;id=ut&amp;mauris=dolor&amp;vulputate=morbi&amp;elementum=vel&amp;nullam=lectus&amp;varius=in&amp;nulla=quam&amp;facilisi=fringilla&amp;cras=rhoncus&amp;non=mauris&amp;velit=enim&amp;nec=leo&amp;nisi=rhoncus&amp;vulputate=sed&amp;nonummy=vestibulum&amp;maecenas=sit&amp;tincidunt=amet&amp;lacus=cursus&amp;at=id&amp;velit=turpis&amp;vivamus=integer&amp;vel=aliquet&amp;nulla=massa&amp;eget=id&amp;eros=lobortis&amp;elementum=convallis&amp;pellentesque=tortor&amp;quisque=risus&amp;porta=dapibus&amp;volutpat=augue&amp;erat=vel&amp;quisque=accumsan&amp;erat=tellus&amp;eros=nisi&amp;viverra=eu&amp;eget=orci&amp;congue=mauris&amp;eget=lacinia&amp;semper=sapien&amp;rutrum=quis&amp;nulla=libero&amp;nunc=nullam&amp;purus=sit&amp;phasellus=amet&amp;in=turpis&amp;felis=elementum&amp;donec=ligula&amp;semper=vehicula&amp;sapien=consequat&amp;a=morbi&amp;libero=a&amp;nam=ipsum&amp;dui=integer&amp;proin=a&amp;leo=nibh&amp;odio=in&amp;porttitor=quis&amp;id=justo&amp;consequat=maecenas&amp;in=rhoncus&amp;consequat=aliquam&amp;ut=lacus&amp;nulla=morbi&amp;sed=quis&amp;accumsan=tortor&amp;felis=id&amp;ut=nulla&amp;at=ultrices&amp;dolor=aliquet&amp;quis=maecenas&amp;odio=leo&amp;consequat=odio&amp;varius=condimentum&amp;integer=id&amp;ac=luctus</t>
   </si>
   <si>
     <t xml:space="preserve">Proin eu mi.</t>
@@ -2175,12 +1878,6 @@
     <t xml:space="preserve">anadin1t@canalblog.com</t>
   </si>
   <si>
-    <t xml:space="preserve">anadin1t@hexun.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://state.tx.us/ut/tellus/nulla/ut/erat.jpg?duis=mauris&amp;bibendum=enim&amp;felis=leo&amp;sed=rhoncus&amp;interdum=sed&amp;venenatis=vestibulum&amp;turpis=sit&amp;enim=amet&amp;blandit=cursus&amp;mi=id&amp;in=turpis&amp;porttitor=integer&amp;pede=aliquet&amp;justo=massa&amp;eu=id&amp;massa=lobortis&amp;donec=convallis&amp;dapibus=tortor&amp;duis=risus&amp;at=dapibus&amp;velit=augue&amp;eu=vel&amp;est=accumsan&amp;congue=tellus&amp;elementum=nisi&amp;in=eu&amp;hac=orci&amp;habitasse=mauris&amp;platea=lacinia&amp;dictumst=sapien&amp;morbi=quis&amp;vestibulum=libero&amp;velit=nullam&amp;id=sit&amp;pretium=amet&amp;iaculis=turpis&amp;diam=elementum&amp;erat=ligula&amp;fermentum=vehicula&amp;justo=consequat&amp;nec=morbi&amp;condimentum=a&amp;neque=ipsum&amp;sapien=integer&amp;placerat=a&amp;ante=nibh&amp;nulla=in&amp;justo=quis&amp;aliquam=justo&amp;quis=maecenas&amp;turpis=rhoncus&amp;eget=aliquam&amp;elit=lacus&amp;sodales=morbi&amp;scelerisque=quis&amp;mauris=tortor&amp;sit=id&amp;amet=nulla&amp;eros=ultrices&amp;suspendisse=aliquet&amp;accumsan=maecenas&amp;tortor=leo&amp;quis=odio&amp;turpis=condimentum&amp;sed=id&amp;ante=luctus&amp;vivamus=nec&amp;tortor=molestie&amp;duis=sed&amp;mattis=justo&amp;egestas=pellentesque&amp;metus=viverra&amp;aenean=pede&amp;fermentum=ac&amp;donec=diam&amp;ut=cras&amp;mauris=pellentesque&amp;eget=volutpat&amp;massa=dui&amp;tempor=maecenas&amp;convallis=tristique&amp;nulla=est&amp;neque=et&amp;libero=tempus&amp;convallis=semper&amp;eget=est&amp;eleifend=quam</t>
-  </si>
-  <si>
     <t xml:space="preserve">Duis at velit eu est congue elementum. In hac habitasse platea dictumst.</t>
   </si>
   <si>
@@ -2197,9 +1894,6 @@
   </si>
   <si>
     <t xml:space="preserve">msertin1u@cyberchimps.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://bloomberg.com/quam/fringilla/rhoncus/mauris/enim/leo.aspx?cum=sapien&amp;sociis=cum&amp;natoque=sociis&amp;penatibus=natoque&amp;et=penatibus&amp;magnis=et&amp;dis=magnis&amp;parturient=dis&amp;montes=parturient&amp;nascetur=montes&amp;ridiculus=nascetur&amp;mus=ridiculus&amp;vivamus=mus&amp;vestibulum=etiam&amp;sagittis=vel&amp;sapien=augue&amp;cum=vestibulum&amp;sociis=rutrum&amp;natoque=rutrum&amp;penatibus=neque&amp;et=aenean&amp;magnis=auctor&amp;dis=gravida&amp;parturient=sem&amp;montes=praesent&amp;nascetur=id&amp;ridiculus=massa&amp;mus=id&amp;etiam=nisl&amp;vel=venenatis&amp;augue=lacinia&amp;vestibulum=aenean&amp;rutrum=sit&amp;rutrum=amet&amp;neque=justo&amp;aenean=morbi&amp;auctor=ut&amp;gravida=odio&amp;sem=cras&amp;praesent=mi&amp;id=pede&amp;massa=malesuada&amp;id=in&amp;nisl=imperdiet&amp;venenatis=et&amp;lacinia=commodo&amp;aenean=vulputate&amp;sit=justo&amp;amet=in&amp;justo=blandit&amp;morbi=ultrices&amp;ut=enim&amp;odio=lorem&amp;cras=ipsum&amp;mi=dolor&amp;pede=sit&amp;malesuada=amet&amp;in=consectetuer&amp;imperdiet=adipiscing&amp;et=elit&amp;commodo=proin&amp;vulputate=interdum&amp;justo=mauris&amp;in=non&amp;blandit=ligula&amp;ultrices=pellentesque&amp;enim=ultrices</t>
   </si>
   <si>
     <t xml:space="preserve">Morbi non lectus. Aliquam sit amet diam in magna bibendum imperdiet.</t>
@@ -2240,9 +1934,6 @@
     <t xml:space="preserve">sslemmonds1v@rambler.ru</t>
   </si>
   <si>
-    <t xml:space="preserve">sslemmonds1v@columbia.edu</t>
-  </si>
-  <si>
     <t xml:space="preserve">Realigned 6th generation projection</t>
   </si>
   <si>
@@ -2262,12 +1953,6 @@
   </si>
   <si>
     <t xml:space="preserve">bclemetts1w@arizona.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bclemetts1w@themeforest.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://quantcast.com/a/ipsum/integer.aspx?luctus=mi&amp;et=sit&amp;ultrices=amet&amp;posuere=lobortis&amp;cubilia=sapien&amp;curae=sapien&amp;donec=non&amp;pharetra=mi&amp;magna=integer&amp;vestibulum=ac&amp;aliquet=neque&amp;ultrices=duis&amp;erat=bibendum&amp;tortor=morbi&amp;sollicitudin=non&amp;mi=quam&amp;sit=nec&amp;amet=dui&amp;lobortis=luctus&amp;sapien=rutrum&amp;sapien=nulla&amp;non=tellus&amp;mi=in&amp;integer=sagittis&amp;ac=dui&amp;neque=vel&amp;duis=nisl&amp;bibendum=duis&amp;morbi=ac&amp;non=nibh</t>
   </si>
   <si>
     <t xml:space="preserve">Praesent id massa id nisl venenatis lacinia. Aenean sit amet justo.</t>
@@ -2302,12 +1987,6 @@
     <t xml:space="preserve">vhaysham1x@godaddy.com</t>
   </si>
   <si>
-    <t xml:space="preserve">vhaysham1x@deviantart.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hp.com/venenatis/lacinia.html?non=in&amp;velit=hac&amp;nec=habitasse&amp;nisi=platea&amp;vulputate=dictumst&amp;nonummy=etiam&amp;maecenas=faucibus&amp;tincidunt=cursus&amp;lacus=urna&amp;at=ut&amp;velit=tellus&amp;vivamus=nulla&amp;vel=ut&amp;nulla=erat&amp;eget=id&amp;eros=mauris&amp;elementum=vulputate&amp;pellentesque=elementum&amp;quisque=nullam&amp;porta=varius&amp;volutpat=nulla&amp;erat=facilisi&amp;quisque=cras&amp;erat=non&amp;eros=velit&amp;viverra=nec&amp;eget=nisi&amp;congue=vulputate&amp;eget=nonummy&amp;semper=maecenas&amp;rutrum=tincidunt&amp;nulla=lacus&amp;nunc=at&amp;purus=velit&amp;phasellus=vivamus&amp;in=vel&amp;felis=nulla&amp;donec=eget</t>
-  </si>
-  <si>
     <t xml:space="preserve">Etiam vel augue. Vestibulum rutrum rutrum neque. Aenean auctor gravida sem.</t>
   </si>
   <si>
@@ -2337,9 +2016,6 @@
     <t xml:space="preserve">mgatchell1y@weebly.com</t>
   </si>
   <si>
-    <t xml:space="preserve">mgatchell1y@google.co.jp</t>
-  </si>
-  <si>
     <t xml:space="preserve">Optimized static paradigm</t>
   </si>
   <si>
@@ -2359,9 +2035,6 @@
     <t xml:space="preserve">dgellert1z@liveinternet.ru</t>
   </si>
   <si>
-    <t xml:space="preserve">https://example.com/aliquet/ultrices/erat/tortor/sollicitudin.aspx?neque=mattis&amp;sapien=egestas&amp;placerat=metus&amp;ante=aenean&amp;nulla=fermentum&amp;justo=donec&amp;aliquam=ut&amp;quis=mauris&amp;turpis=eget&amp;eget=massa&amp;elit=tempor&amp;sodales=convallis&amp;scelerisque=nulla&amp;mauris=neque&amp;sit=libero&amp;amet=convallis&amp;eros=eget&amp;suspendisse=eleifend&amp;accumsan=luctus&amp;tortor=ultricies&amp;quis=eu&amp;turpis=nibh&amp;sed=quisque&amp;ante=id&amp;vivamus=justo&amp;tortor=sit&amp;duis=amet&amp;mattis=sapien&amp;egestas=dignissim&amp;metus=vestibulum&amp;aenean=vestibulum&amp;fermentum=ante&amp;donec=ipsum&amp;ut=primis&amp;mauris=in&amp;eget=faucibus&amp;massa=orci&amp;tempor=luctus&amp;convallis=et&amp;nulla=ultrices&amp;neque=posuere&amp;libero=cubilia&amp;convallis=curae&amp;eget=nulla&amp;eleifend=dapibus&amp;luctus=dolor&amp;ultricies=vel&amp;eu=est&amp;nibh=donec&amp;quisque=odio&amp;id=justo&amp;justo=sollicitudin&amp;sit=ut&amp;amet=suscipit&amp;sapien=a&amp;dignissim=feugiat&amp;vestibulum=et&amp;vestibulum=eros&amp;ante=vestibulum&amp;ipsum=ac&amp;primis=est&amp;in=lacinia&amp;faucibus=nisi&amp;orci=venenatis&amp;luctus=tristique&amp;et=fusce&amp;ultrices=congue&amp;posuere=diam&amp;cubilia=id&amp;curae=ornare&amp;nulla=imperdiet&amp;dapibus=sapien&amp;dolor=urna&amp;vel=pretium&amp;est=nisl&amp;donec=ut&amp;odio=volutpat&amp;justo=sapien&amp;sollicitudin=arcu&amp;ut=sed&amp;suscipit=augue</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cras in purus eu magna vulputate luctus. Cum sociis natoque penatibus et magnis dis parturient montes, nascetur ridiculus mus.</t>
   </si>
   <si>
@@ -2380,12 +2053,6 @@
     <t xml:space="preserve">epetrillo20@godaddy.com</t>
   </si>
   <si>
-    <t xml:space="preserve">epetrillo20@instagram.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://reuters.com/ipsum/aliquam/non/mauris.jpg?felis=ipsum&amp;sed=dolor&amp;interdum=sit&amp;venenatis=amet&amp;turpis=consectetuer&amp;enim=adipiscing&amp;blandit=elit&amp;mi=proin&amp;in=interdum&amp;porttitor=mauris&amp;pede=non&amp;justo=ligula&amp;eu=pellentesque&amp;massa=ultrices&amp;donec=phasellus&amp;dapibus=id&amp;duis=sapien&amp;at=in&amp;velit=sapien&amp;eu=iaculis&amp;est=congue&amp;congue=vivamus&amp;elementum=metus&amp;in=arcu&amp;hac=adipiscing&amp;habitasse=molestie&amp;platea=hendrerit&amp;dictumst=at&amp;morbi=vulputate&amp;vestibulum=vitae&amp;velit=nisl&amp;id=aenean&amp;pretium=lectus&amp;iaculis=pellentesque&amp;diam=eget&amp;erat=nunc&amp;fermentum=donec&amp;justo=quis&amp;nec=orci&amp;condimentum=eget&amp;neque=orci&amp;sapien=vehicula&amp;placerat=condimentum&amp;ante=curabitur&amp;nulla=in&amp;justo=libero&amp;aliquam=ut&amp;quis=massa&amp;turpis=volutpat&amp;eget=convallis&amp;elit=morbi&amp;sodales=odio&amp;scelerisque=odio&amp;mauris=elementum&amp;sit=eu&amp;amet=interdum&amp;eros=eu&amp;suspendisse=tincidunt&amp;accumsan=in&amp;tortor=leo&amp;quis=maecenas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mauris sit amet eros. Suspendisse accumsan tortor quis turpis. Sed ante.</t>
   </si>
   <si>
@@ -2407,12 +2074,6 @@
     <t xml:space="preserve">tbaraclough21@bigcartel.com</t>
   </si>
   <si>
-    <t xml:space="preserve">tbaraclough21@amazon.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://quantcast.com/nonummy/integer/non/velit/donec/diam/neque.js?vitae=in&amp;ipsum=sagittis&amp;aliquam=dui&amp;non=vel&amp;mauris=nisl&amp;morbi=duis&amp;non=ac&amp;lectus=nibh&amp;aliquam=fusce&amp;sit=lacus&amp;amet=purus&amp;diam=aliquet&amp;in=at&amp;magna=feugiat&amp;bibendum=non&amp;imperdiet=pretium&amp;nullam=quis&amp;orci=lectus&amp;pede=suspendisse&amp;venenatis=potenti&amp;non=in&amp;sodales=eleifend&amp;sed=quam&amp;tincidunt=a&amp;eu=odio&amp;felis=in&amp;fusce=hac&amp;posuere=habitasse&amp;felis=platea&amp;sed=dictumst&amp;lacus=maecenas&amp;morbi=ut&amp;sem=massa&amp;mauris=quis&amp;laoreet=augue&amp;ut=luctus&amp;rhoncus=tincidunt&amp;aliquet=nulla&amp;pulvinar=mollis&amp;sed=molestie&amp;nisl=lorem&amp;nunc=quisque&amp;rhoncus=ut&amp;dui=erat&amp;vel=curabitur&amp;sem=gravida&amp;sed=nisi&amp;sagittis=at&amp;nam=nibh&amp;congue=in&amp;risus=hac&amp;semper=habitasse&amp;porta=platea&amp;volutpat=dictumst&amp;quam=aliquam&amp;pede=augue&amp;lobortis=quam&amp;ligula=sollicitudin&amp;sit=vitae&amp;amet=consectetuer&amp;eleifend=eget&amp;pede=rutrum&amp;libero=at&amp;quis=lorem&amp;orci=integer&amp;nullam=tincidunt&amp;molestie=ante&amp;nibh=vel&amp;in=ipsum&amp;lectus=praesent&amp;pellentesque=blandit&amp;at=lacinia&amp;nulla=erat&amp;suspendisse=vestibulum&amp;potenti=sed&amp;cras=magna&amp;in=at&amp;purus=nunc&amp;eu=commodo&amp;magna=placerat&amp;vulputate=praesent&amp;luctus=blandit&amp;cum=nam&amp;sociis=nulla&amp;natoque=integer&amp;penatibus=pede&amp;et=justo&amp;magnis=lacinia&amp;dis=eget&amp;parturient=tincidunt&amp;montes=eget&amp;nascetur=tempus&amp;ridiculus=vel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nulla nisl.</t>
   </si>
   <si>
@@ -2431,12 +2092,6 @@
     <t xml:space="preserve">pnormanvell22@so-net.ne.jp</t>
   </si>
   <si>
-    <t xml:space="preserve">pnormanvell22@springer.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://newyorker.com/ac/enim/in/tempor.aspx?vestibulum=sed&amp;quam=nisl&amp;sapien=nunc&amp;varius=rhoncus&amp;ut=dui&amp;blandit=vel&amp;non=sem&amp;interdum=sed&amp;in=sagittis&amp;ante=nam&amp;vestibulum=congue&amp;ante=risus&amp;ipsum=semper&amp;primis=porta&amp;in=volutpat&amp;faucibus=quam&amp;orci=pede&amp;luctus=lobortis&amp;et=ligula&amp;ultrices=sit&amp;posuere=amet&amp;cubilia=eleifend&amp;curae=pede&amp;duis=libero&amp;faucibus=quis&amp;accumsan=orci&amp;odio=nullam&amp;curabitur=molestie&amp;convallis=nibh&amp;duis=in&amp;consequat=lectus&amp;dui=pellentesque&amp;nec=at&amp;nisi=nulla&amp;volutpat=suspendisse&amp;eleifend=potenti&amp;donec=cras&amp;ut=in&amp;dolor=purus&amp;morbi=eu&amp;vel=magna&amp;lectus=vulputate&amp;in=luctus&amp;quam=cum&amp;fringilla=sociis&amp;rhoncus=natoque&amp;mauris=penatibus&amp;enim=et&amp;leo=magnis&amp;rhoncus=dis&amp;sed=parturient&amp;vestibulum=montes&amp;sit=nascetur&amp;amet=ridiculus&amp;cursus=mus&amp;id=vivamus&amp;turpis=vestibulum&amp;integer=sagittis&amp;aliquet=sapien&amp;massa=cum&amp;id=sociis&amp;lobortis=natoque</t>
-  </si>
-  <si>
     <t xml:space="preserve">Proin interdum mauris non ligula pellentesque ultrices. Phasellus id sapien in sapien iaculis congue. Vivamus metus arcu, adipiscing molestie, hendrerit at, vulputate vitae, nisl.</t>
   </si>
   <si>
@@ -2456,12 +2111,6 @@
   </si>
   <si>
     <t xml:space="preserve">ewarlton23@arstechnica.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lbaldock23@webs.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ihg.com/et/tempus/semper/est/quam/pharetra.aspx?quis=ullamcorper&amp;orci=augue&amp;eget=a&amp;orci=suscipit&amp;vehicula=nulla&amp;condimentum=elit&amp;curabitur=ac&amp;in=nulla&amp;libero=sed&amp;ut=vel</t>
   </si>
   <si>
     <t xml:space="preserve">Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; Mauris viverra diam vitae quam. Suspendisse potenti.</t>
@@ -2475,7 +2124,7 @@
 Cras non velit nec nisi vulputate nonummy. Maecenas tincidunt lacus at velit. Vivamus vel nulla eget eros elementum pellentesque.</t>
   </si>
   <si>
-    <t xml:space="preserve">Donec diam neque, vestibulum eget, vulputate ut, ultrices vel, augue. Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; Donec pharetra, magna vestibulum aliquet ultrices, erat tortor sollicitudin mi, sit amet lobortis sapien sapien non mi.</t>
+    <t xml:space="preserve">Donec diam neque, vestibulum eget, vulputate ut, ultrices vel, augue. Donec pharetra, magna vestibulum aliquet ultrices, erat tortor sollicitudin mi, sit amet lobortis sapien sapien non mi.</t>
   </si>
   <si>
     <t xml:space="preserve">http://wisc.edu/risus/praesent/lectus/vestibulum/quam/sapien/varius.jsp</t>
@@ -2491,12 +2140,6 @@
   </si>
   <si>
     <t xml:space="preserve">ktritton24@tripod.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ktritton24@infoseek.co.jp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/at/vulputate/vitae/nisl/aenean/lectus.png?nisl=sit&amp;venenatis=amet&amp;lacinia=diam&amp;aenean=in&amp;sit=magna&amp;amet=bibendum&amp;justo=imperdiet&amp;morbi=nullam&amp;ut=orci&amp;odio=pede&amp;cras=venenatis&amp;mi=non&amp;pede=sodales&amp;malesuada=sed&amp;in=tincidunt&amp;imperdiet=eu&amp;et=felis&amp;commodo=fusce&amp;vulputate=posuere&amp;justo=felis&amp;in=sed&amp;blandit=lacus&amp;ultrices=morbi&amp;enim=sem&amp;lorem=mauris&amp;ipsum=laoreet&amp;dolor=ut&amp;sit=rhoncus&amp;amet=aliquet&amp;consectetuer=pulvinar&amp;adipiscing=sed&amp;elit=nisl&amp;proin=nunc&amp;interdum=rhoncus&amp;mauris=dui&amp;non=vel&amp;ligula=sem&amp;pellentesque=sed&amp;ultrices=sagittis&amp;phasellus=nam&amp;id=congue&amp;sapien=risus&amp;in=semper&amp;sapien=porta&amp;iaculis=volutpat&amp;congue=quam&amp;vivamus=pede&amp;metus=lobortis&amp;arcu=ligula&amp;adipiscing=sit&amp;molestie=amet&amp;hendrerit=eleifend&amp;at=pede&amp;vulputate=libero&amp;vitae=quis&amp;nisl=orci&amp;aenean=nullam&amp;lectus=molestie&amp;pellentesque=nibh&amp;eget=in&amp;nunc=lectus&amp;donec=pellentesque&amp;quis=at&amp;orci=nulla&amp;eget=suspendisse&amp;orci=potenti&amp;vehicula=cras&amp;condimentum=in&amp;curabitur=purus&amp;in=eu</t>
   </si>
   <si>
     <t xml:space="preserve">Quality-focused multi-tasking protocol</t>
@@ -2522,9 +2165,6 @@
     <t xml:space="preserve">cbattman25@microsoft.com</t>
   </si>
   <si>
-    <t xml:space="preserve">https://taobao.com/quis/orci/nullam/molestie/nibh/in.js?pede=at&amp;ac=nulla&amp;diam=suspendisse&amp;cras=potenti&amp;pellentesque=cras&amp;volutpat=in&amp;dui=purus&amp;maecenas=eu&amp;tristique=magna&amp;est=vulputate&amp;et=luctus&amp;tempus=cum&amp;semper=sociis&amp;est=natoque&amp;quam=penatibus&amp;pharetra=et&amp;magna=magnis&amp;ac=dis&amp;consequat=parturient&amp;metus=montes&amp;sapien=nascetur&amp;ut=ridiculus&amp;nunc=mus&amp;vestibulum=vivamus&amp;ante=vestibulum&amp;ipsum=sagittis&amp;primis=sapien&amp;in=cum&amp;faucibus=sociis&amp;orci=natoque&amp;luctus=penatibus&amp;et=et&amp;ultrices=magnis&amp;posuere=dis&amp;cubilia=parturient&amp;curae=montes&amp;mauris=nascetur&amp;viverra=ridiculus&amp;diam=mus&amp;vitae=etiam&amp;quam=vel&amp;suspendisse=augue&amp;potenti=vestibulum&amp;nullam=rutrum&amp;porttitor=rutrum&amp;lacus=neque&amp;at=aenean&amp;turpis=auctor&amp;donec=gravida&amp;posuere=sem&amp;metus=praesent&amp;vitae=id&amp;ipsum=massa&amp;aliquam=id&amp;non=nisl&amp;mauris=venenatis&amp;morbi=lacinia&amp;non=aenean&amp;lectus=sit&amp;aliquam=amet</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nulla mollis molestie lorem.</t>
   </si>
   <si>
@@ -2549,9 +2189,6 @@
     <t xml:space="preserve">gjaggli26@dmoz.org</t>
   </si>
   <si>
-    <t xml:space="preserve">http://addthis.com/volutpat/eleifend/donec/ut/dolor.png?vel=nulla&amp;accumsan=dapibus&amp;tellus=dolor&amp;nisi=vel&amp;eu=est&amp;orci=donec&amp;mauris=odio&amp;lacinia=justo&amp;sapien=sollicitudin&amp;quis=ut&amp;libero=suscipit&amp;nullam=a&amp;sit=feugiat&amp;amet=et&amp;turpis=eros&amp;elementum=vestibulum&amp;ligula=ac&amp;vehicula=est&amp;consequat=lacinia&amp;morbi=nisi&amp;a=venenatis&amp;ipsum=tristique&amp;integer=fusce&amp;a=congue&amp;nibh=diam&amp;in=id&amp;quis=ornare&amp;justo=imperdiet&amp;maecenas=sapien&amp;rhoncus=urna&amp;aliquam=pretium&amp;lacus=nisl&amp;morbi=ut&amp;quis=volutpat&amp;tortor=sapien&amp;id=arcu&amp;nulla=sed&amp;ultrices=augue&amp;aliquet=aliquam&amp;maecenas=erat&amp;leo=volutpat&amp;odio=in&amp;condimentum=congue&amp;id=etiam&amp;luctus=justo&amp;nec=etiam&amp;molestie=pretium</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fusce congue, diam id ornare imperdiet, sapien urna pretium nisl, ut volutpat sapien arcu sed augue.</t>
   </si>
   <si>
@@ -2574,12 +2211,6 @@
   </si>
   <si>
     <t xml:space="preserve">efardon27@csmonitor.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">et ultrices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efardon27@cmu.edu</t>
   </si>
   <si>
     <t xml:space="preserve">In est risus, auctor sed, tristique in, tempus sit amet, sem.</t>
@@ -2604,9 +2235,6 @@
     <t xml:space="preserve">ccoates28@163.com</t>
   </si>
   <si>
-    <t xml:space="preserve">ccoates28@gnu.org</t>
-  </si>
-  <si>
     <t xml:space="preserve">Multi-layered modular implementation</t>
   </si>
   <si>
@@ -2625,9 +2253,6 @@
     <t xml:space="preserve">dbrislane29@slideshare.net</t>
   </si>
   <si>
-    <t xml:space="preserve">https://zimbio.com/ipsum/dolor/sit.png?ut=erat&amp;dolor=vestibulum&amp;morbi=sed&amp;vel=magna&amp;lectus=at&amp;in=nunc&amp;quam=commodo&amp;fringilla=placerat&amp;rhoncus=praesent&amp;mauris=blandit&amp;enim=nam&amp;leo=nulla&amp;rhoncus=integer&amp;sed=pede&amp;vestibulum=justo&amp;sit=lacinia&amp;amet=eget&amp;cursus=tincidunt&amp;id=eget&amp;turpis=tempus&amp;integer=vel&amp;aliquet=pede&amp;massa=morbi&amp;id=porttitor&amp;lobortis=lorem</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ut at dolor quis odio consequat varius. Integer ac leo.</t>
   </si>
   <si>
@@ -2641,12 +2266,6 @@
   </si>
   <si>
     <t xml:space="preserve">lwitz2a@fc2.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hleivesley2a@webs.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ameblo.jp/nulla/sed/vel/enim.aspx?nascetur=suspendisse&amp;ridiculus=accumsan&amp;mus=tortor&amp;vivamus=quis&amp;vestibulum=turpis&amp;sagittis=sed&amp;sapien=ante&amp;cum=vivamus&amp;sociis=tortor&amp;natoque=duis&amp;penatibus=mattis&amp;et=egestas&amp;magnis=metus&amp;dis=aenean&amp;parturient=fermentum&amp;montes=donec&amp;nascetur=ut&amp;ridiculus=mauris&amp;mus=eget&amp;etiam=massa&amp;vel=tempor&amp;augue=convallis&amp;vestibulum=nulla&amp;rutrum=neque&amp;rutrum=libero&amp;neque=convallis&amp;aenean=eget&amp;auctor=eleifend&amp;gravida=luctus&amp;sem=ultricies&amp;praesent=eu&amp;id=nibh&amp;massa=quisque&amp;id=id&amp;nisl=justo&amp;venenatis=sit&amp;lacinia=amet&amp;aenean=sapien&amp;sit=dignissim&amp;amet=vestibulum&amp;justo=vestibulum&amp;morbi=ante&amp;ut=ipsum&amp;odio=primis&amp;cras=in&amp;mi=faucibus&amp;pede=orci&amp;malesuada=luctus&amp;in=et&amp;imperdiet=ultrices&amp;et=posuere&amp;commodo=cubilia&amp;vulputate=curae&amp;justo=nulla&amp;in=dapibus&amp;blandit=dolor&amp;ultrices=vel&amp;enim=est&amp;lorem=donec&amp;ipsum=odio&amp;dolor=justo&amp;sit=sollicitudin&amp;amet=ut&amp;consectetuer=suscipit&amp;adipiscing=a&amp;elit=feugiat&amp;proin=et&amp;interdum=eros&amp;mauris=vestibulum&amp;non=ac&amp;ligula=est&amp;pellentesque=lacinia&amp;ultrices=nisi&amp;phasellus=venenatis&amp;id=tristique&amp;sapien=fusce&amp;in=congue&amp;sapien=diam&amp;iaculis=id&amp;congue=ornare&amp;vivamus=imperdiet&amp;metus=sapien&amp;arcu=urna&amp;adipiscing=pretium&amp;molestie=nisl&amp;hendrerit=ut&amp;at=volutpat&amp;vulputate=sapien&amp;vitae=arcu&amp;nisl=sed</t>
   </si>
   <si>
     <t xml:space="preserve">Cras non velit nec nisi vulputate nonummy. Maecenas tincidunt lacus at velit.</t>
@@ -2677,12 +2296,6 @@
     <t xml:space="preserve">rbluschke2b@google.com.br</t>
   </si>
   <si>
-    <t xml:space="preserve">rbluschke2b@opera.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://princeton.edu/mauris.jpg?ante=eget&amp;ipsum=orci&amp;primis=vehicula&amp;in=condimentum&amp;faucibus=curabitur&amp;orci=in&amp;luctus=libero&amp;et=ut&amp;ultrices=massa&amp;posuere=volutpat&amp;cubilia=convallis&amp;curae=morbi&amp;duis=odio&amp;faucibus=odio&amp;accumsan=elementum&amp;odio=eu&amp;curabitur=interdum&amp;convallis=eu&amp;duis=tincidunt&amp;consequat=in&amp;dui=leo&amp;nec=maecenas&amp;nisi=pulvinar&amp;volutpat=lobortis&amp;eleifend=est&amp;donec=phasellus&amp;ut=sit&amp;dolor=amet&amp;morbi=erat&amp;vel=nulla&amp;lectus=tempus&amp;in=vivamus&amp;quam=in&amp;fringilla=felis&amp;rhoncus=eu</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cross-platform dedicated productivity</t>
   </si>
   <si>
@@ -2698,12 +2311,6 @@
     <t xml:space="preserve">croblin2c@thetimes.co.uk</t>
   </si>
   <si>
-    <t xml:space="preserve">croblin2c@kickstarter.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://diigo.com/cubilia/curae/nulla.js?in=dolor&amp;leo=sit&amp;maecenas=amet&amp;pulvinar=consectetuer&amp;lobortis=adipiscing&amp;est=elit&amp;phasellus=proin&amp;sit=interdum&amp;amet=mauris&amp;erat=non&amp;nulla=ligula&amp;tempus=pellentesque&amp;vivamus=ultrices&amp;in=phasellus&amp;felis=id&amp;eu=sapien&amp;sapien=in&amp;cursus=sapien&amp;vestibulum=iaculis&amp;proin=congue&amp;eu=vivamus&amp;mi=metus&amp;nulla=arcu&amp;ac=adipiscing&amp;enim=molestie&amp;in=hendrerit&amp;tempor=at&amp;turpis=vulputate&amp;nec=vitae&amp;euismod=nisl&amp;scelerisque=aenean&amp;quam=lectus&amp;turpis=pellentesque&amp;adipiscing=eget&amp;lorem=nunc&amp;vitae=donec&amp;mattis=quis&amp;nibh=orci&amp;ligula=eget&amp;nec=orci&amp;sem=vehicula&amp;duis=condimentum&amp;aliquam=curabitur&amp;convallis=in&amp;nunc=libero&amp;proin=ut&amp;at=massa&amp;turpis=volutpat&amp;a=convallis&amp;pede=morbi&amp;posuere=odio&amp;nonummy=odio&amp;integer=elementum&amp;non=eu&amp;velit=interdum&amp;donec=eu&amp;diam=tincidunt&amp;neque=in&amp;vestibulum=leo&amp;eget=maecenas&amp;vulputate=pulvinar&amp;ut=lobortis&amp;ultrices=est&amp;vel=phasellus&amp;augue=sit&amp;vestibulum=amet&amp;ante=erat&amp;ipsum=nulla&amp;primis=tempus&amp;in=vivamus&amp;faucibus=in&amp;orci=felis&amp;luctus=eu&amp;et=sapien&amp;ultrices=cursus&amp;posuere=vestibulum&amp;cubilia=proin&amp;curae=eu&amp;donec=mi&amp;pharetra=nulla&amp;magna=ac&amp;vestibulum=enim&amp;aliquet=in&amp;ultrices=tempor&amp;erat=turpis&amp;tortor=nec&amp;sollicitudin=euismod&amp;mi=scelerisque</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aenean auctor gravida sem. Praesent id massa id nisl venenatis lacinia. Aenean sit amet justo.</t>
   </si>
   <si>
@@ -2722,9 +2329,6 @@
     <t xml:space="preserve">911 609 5696</t>
   </si>
   <si>
-    <t xml:space="preserve">donec diam neque</t>
-  </si>
-  <si>
     <t xml:space="preserve">Switchable mission-critical customer loyalty</t>
   </si>
   <si>
@@ -2740,12 +2344,6 @@
     <t xml:space="preserve">cwrightam2e@parallels.com</t>
   </si>
   <si>
-    <t xml:space="preserve">cwrightam2e@elpais.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://unblog.fr/nunc/proin/at/turpis/a/pede/posuere.jpg?placerat=vitae&amp;praesent=nisl&amp;blandit=aenean&amp;nam=lectus&amp;nulla=pellentesque&amp;integer=eget&amp;pede=nunc&amp;justo=donec&amp;lacinia=quis&amp;eget=orci&amp;tincidunt=eget&amp;eget=orci&amp;tempus=vehicula&amp;vel=condimentum&amp;pede=curabitur&amp;morbi=in&amp;porttitor=libero&amp;lorem=ut&amp;id=massa&amp;ligula=volutpat&amp;suspendisse=convallis&amp;ornare=morbi&amp;consequat=odio&amp;lectus=odio&amp;in=elementum&amp;est=eu&amp;risus=interdum&amp;auctor=eu&amp;sed=tincidunt&amp;tristique=in&amp;in=leo&amp;tempus=maecenas&amp;sit=pulvinar&amp;amet=lobortis&amp;sem=est&amp;fusce=phasellus&amp;consequat=sit&amp;nulla=amet&amp;nisl=erat&amp;nunc=nulla&amp;nisl=tempus&amp;duis=vivamus&amp;bibendum=in&amp;felis=felis&amp;sed=eu&amp;interdum=sapien&amp;venenatis=cursus&amp;turpis=vestibulum&amp;enim=proin&amp;blandit=eu&amp;mi=mi&amp;in=nulla&amp;porttitor=ac&amp;pede=enim&amp;justo=in&amp;eu=tempor&amp;massa=turpis&amp;donec=nec</t>
-  </si>
-  <si>
     <t xml:space="preserve">Progressive cohesive analyzer</t>
   </si>
   <si>
@@ -2761,12 +2359,6 @@
     <t xml:space="preserve">sessex2f@umn.edu</t>
   </si>
   <si>
-    <t xml:space="preserve">sessex2f@tinypic.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://altervista.org/pede/malesuada.json?id=blandit&amp;sapien=ultrices&amp;in=enim&amp;sapien=lorem&amp;iaculis=ipsum&amp;congue=dolor&amp;vivamus=sit&amp;metus=amet&amp;arcu=consectetuer&amp;adipiscing=adipiscing&amp;molestie=elit&amp;hendrerit=proin&amp;at=interdum&amp;vulputate=mauris&amp;vitae=non&amp;nisl=ligula&amp;aenean=pellentesque&amp;lectus=ultrices&amp;pellentesque=phasellus&amp;eget=id&amp;nunc=sapien&amp;donec=in&amp;quis=sapien&amp;orci=iaculis&amp;eget=congue&amp;orci=vivamus&amp;vehicula=metus&amp;condimentum=arcu&amp;curabitur=adipiscing&amp;in=molestie&amp;libero=hendrerit&amp;ut=at&amp;massa=vulputate&amp;volutpat=vitae&amp;convallis=nisl&amp;morbi=aenean&amp;odio=lectus&amp;odio=pellentesque&amp;elementum=eget&amp;eu=nunc&amp;interdum=donec&amp;eu=quis&amp;tincidunt=orci&amp;in=eget&amp;leo=orci&amp;maecenas=vehicula&amp;pulvinar=condimentum&amp;lobortis=curabitur&amp;est=in&amp;phasellus=libero&amp;sit=ut&amp;amet=massa&amp;erat=volutpat&amp;nulla=convallis&amp;tempus=morbi&amp;vivamus=odio&amp;in=odio&amp;felis=elementum&amp;eu=eu&amp;sapien=interdum&amp;cursus=eu&amp;vestibulum=tincidunt&amp;proin=in&amp;eu=leo&amp;mi=maecenas&amp;nulla=pulvinar&amp;ac=lobortis&amp;enim=est&amp;in=phasellus&amp;tempor=sit&amp;turpis=amet&amp;nec=erat&amp;euismod=nulla&amp;scelerisque=tempus&amp;quam=vivamus&amp;turpis=in&amp;adipiscing=felis&amp;lorem=eu&amp;vitae=sapien&amp;mattis=cursus&amp;nibh=vestibulum&amp;ligula=proin&amp;nec=eu&amp;sem=mi&amp;duis=nulla&amp;aliquam=ac&amp;convallis=enim&amp;nunc=in&amp;proin=tempor&amp;at=turpis&amp;turpis=nec&amp;a=euismod&amp;pede=scelerisque&amp;posuere=quam&amp;nonummy=turpis&amp;integer=adipiscing&amp;non=lorem</t>
-  </si>
-  <si>
     <t xml:space="preserve">Object-based holistic workforce</t>
   </si>
   <si>
@@ -2807,12 +2399,6 @@
   </si>
   <si>
     <t xml:space="preserve">eantonomolii2h@chronoengine.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eantonomolii2h@jugem.jp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://thetimes.co.uk/rhoncus/mauris/enim.jsp?vestibulum=convallis&amp;sit=morbi&amp;amet=odio&amp;cursus=odio&amp;id=elementum&amp;turpis=eu&amp;integer=interdum&amp;aliquet=eu&amp;massa=tincidunt&amp;id=in&amp;lobortis=leo&amp;convallis=maecenas&amp;tortor=pulvinar&amp;risus=lobortis&amp;dapibus=est&amp;augue=phasellus&amp;vel=sit&amp;accumsan=amet&amp;tellus=erat&amp;nisi=nulla&amp;eu=tempus&amp;orci=vivamus&amp;mauris=in&amp;lacinia=felis&amp;sapien=eu&amp;quis=sapien&amp;libero=cursus&amp;nullam=vestibulum&amp;sit=proin&amp;amet=eu&amp;turpis=mi&amp;elementum=nulla&amp;ligula=ac&amp;vehicula=enim&amp;consequat=in&amp;morbi=tempor</t>
   </si>
   <si>
     <t xml:space="preserve">Progressive cohesive hardware</t>
@@ -2831,9 +2417,6 @@
     <t xml:space="preserve">jsizey2i@miibeian.gov.cn</t>
   </si>
   <si>
-    <t xml:space="preserve">jsizey2i@google.co.jp</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nulla justo. Aliquam quis turpis eget elit sodales scelerisque. Mauris sit amet eros.</t>
   </si>
   <si>
@@ -2867,15 +2450,6 @@
     <t xml:space="preserve">fdursley2j@xinhuanet.com</t>
   </si>
   <si>
-    <t xml:space="preserve">feugiat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fdursley2j@typepad.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://mtv.com/non.aspx?lacus=fusce&amp;morbi=consequat&amp;quis=nulla&amp;tortor=nisl&amp;id=nunc&amp;nulla=nisl&amp;ultrices=duis&amp;aliquet=bibendum&amp;maecenas=felis&amp;leo=sed&amp;odio=interdum&amp;condimentum=venenatis&amp;id=turpis&amp;luctus=enim&amp;nec=blandit&amp;molestie=mi&amp;sed=in&amp;justo=porttitor&amp;pellentesque=pede&amp;viverra=justo&amp;pede=eu&amp;ac=massa&amp;diam=donec&amp;cras=dapibus&amp;pellentesque=duis&amp;volutpat=at&amp;dui=velit&amp;maecenas=eu&amp;tristique=est&amp;est=congue&amp;et=elementum&amp;tempus=in&amp;semper=hac&amp;est=habitasse&amp;quam=platea&amp;pharetra=dictumst&amp;magna=morbi&amp;ac=vestibulum&amp;consequat=velit&amp;metus=id&amp;sapien=pretium&amp;ut=iaculis&amp;nunc=diam&amp;vestibulum=erat&amp;ante=fermentum&amp;ipsum=justo&amp;primis=nec&amp;in=condimentum&amp;faucibus=neque&amp;orci=sapien&amp;luctus=placerat&amp;et=ante&amp;ultrices=nulla&amp;posuere=justo&amp;cubilia=aliquam&amp;curae=quis&amp;mauris=turpis&amp;viverra=eget&amp;diam=elit&amp;vitae=sodales&amp;quam=scelerisque&amp;suspendisse=mauris&amp;potenti=sit&amp;nullam=amet&amp;porttitor=eros&amp;lacus=suspendisse&amp;at=accumsan&amp;turpis=tortor&amp;donec=quis&amp;posuere=turpis&amp;metus=sed&amp;vitae=ante&amp;ipsum=vivamus&amp;aliquam=tortor&amp;non=duis&amp;mauris=mattis&amp;morbi=egestas&amp;non=metus&amp;lectus=aenean&amp;aliquam=fermentum&amp;sit=donec&amp;amet=ut&amp;diam=mauris&amp;in=eget&amp;magna=massa&amp;bibendum=tempor&amp;imperdiet=convallis&amp;nullam=nulla&amp;orci=neque&amp;pede=libero&amp;venenatis=convallis&amp;non=eget&amp;sodales=eleifend&amp;sed=luctus&amp;tincidunt=ultricies&amp;eu=eu&amp;felis=nibh</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mauris ullamcorper purus sit amet nulla. Quisque arcu libero, rutrum ac, lobortis vel, dapibus at, diam. Nam tristique tortor eu pede.</t>
   </si>
   <si>
@@ -2900,15 +2474,6 @@
     <t xml:space="preserve">mhurdle2k@time.com</t>
   </si>
   <si>
-    <t xml:space="preserve">quis libero nullam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kpetticrow2k@unc.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://blogtalkradio.com/nisi.png?justo=justo&amp;in=etiam&amp;blandit=pretium&amp;ultrices=iaculis&amp;enim=justo&amp;lorem=in&amp;ipsum=hac&amp;dolor=habitasse&amp;sit=platea&amp;amet=dictumst&amp;consectetuer=etiam&amp;adipiscing=faucibus&amp;elit=cursus&amp;proin=urna&amp;interdum=ut&amp;mauris=tellus&amp;non=nulla&amp;ligula=ut&amp;pellentesque=erat&amp;ultrices=id&amp;phasellus=mauris&amp;id=vulputate&amp;sapien=elementum&amp;in=nullam&amp;sapien=varius&amp;iaculis=nulla&amp;congue=facilisi&amp;vivamus=cras&amp;metus=non&amp;arcu=velit</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nulla tempus. Vivamus in felis eu sapien cursus vestibulum. Proin eu mi.</t>
   </si>
   <si>
@@ -2927,12 +2492,6 @@
     <t xml:space="preserve">efleckness2l@360.cn</t>
   </si>
   <si>
-    <t xml:space="preserve">efleckness2l@cbslocal.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://wikimedia.org/velit/vivamus.xml?in=et&amp;quis=magnis&amp;justo=dis&amp;maecenas=parturient&amp;rhoncus=montes&amp;aliquam=nascetur&amp;lacus=ridiculus&amp;morbi=mus&amp;quis=etiam&amp;tortor=vel&amp;id=augue&amp;nulla=vestibulum&amp;ultrices=rutrum&amp;aliquet=rutrum&amp;maecenas=neque&amp;leo=aenean&amp;odio=auctor&amp;condimentum=gravida&amp;id=sem&amp;luctus=praesent&amp;nec=id&amp;molestie=massa&amp;sed=id&amp;justo=nisl&amp;pellentesque=venenatis&amp;viverra=lacinia&amp;pede=aenean&amp;ac=sit&amp;diam=amet&amp;cras=justo&amp;pellentesque=morbi&amp;volutpat=ut&amp;dui=odio&amp;maecenas=cras&amp;tristique=mi&amp;est=pede&amp;et=malesuada&amp;tempus=in&amp;semper=imperdiet&amp;est=et&amp;quam=commodo&amp;pharetra=vulputate&amp;magna=justo&amp;ac=in&amp;consequat=blandit&amp;metus=ultrices&amp;sapien=enim&amp;ut=lorem&amp;nunc=ipsum&amp;vestibulum=dolor&amp;ante=sit&amp;ipsum=amet&amp;primis=consectetuer&amp;in=adipiscing&amp;faucibus=elit&amp;orci=proin&amp;luctus=interdum&amp;et=mauris&amp;ultrices=non&amp;posuere=ligula&amp;cubilia=pellentesque&amp;curae=ultrices&amp;mauris=phasellus&amp;viverra=id&amp;diam=sapien&amp;vitae=in&amp;quam=sapien</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; Donec pharetra, magna vestibulum aliquet ultrices, erat tortor sollicitudin mi, sit amet lobortis sapien sapien non mi.</t>
   </si>
   <si>
@@ -2951,9 +2510,6 @@
     <t xml:space="preserve">rbatt2m@dropbox.com</t>
   </si>
   <si>
-    <t xml:space="preserve">cdeaconson2m@prlog.org</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vivamus vel nulla eget eros elementum pellentesque. Quisque porta volutpat erat. Quisque erat eros, viverra eget, congue eget, semper rutrum, nulla.</t>
   </si>
   <si>
@@ -2984,12 +2540,6 @@
     <t xml:space="preserve">ospykings2n@dyndns.org</t>
   </si>
   <si>
-    <t xml:space="preserve">ospykings2n@foxnews.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://soup.io/consequat/nulla/nisl.jpg?commodo=magna&amp;placerat=vulputate</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nam tristique tortor eu pede.</t>
   </si>
   <si>
@@ -3014,12 +2564,6 @@
     <t xml:space="preserve">mouver2o@va.gov</t>
   </si>
   <si>
-    <t xml:space="preserve">mouver2o@wisc.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://biglobe.ne.jp/venenatis/tristique/fusce.aspx?vulputate=nulla&amp;ut=ac&amp;ultrices=enim&amp;vel=in&amp;augue=tempor&amp;vestibulum=turpis&amp;ante=nec&amp;ipsum=euismod&amp;primis=scelerisque&amp;in=quam&amp;faucibus=turpis&amp;orci=adipiscing&amp;luctus=lorem&amp;et=vitae&amp;ultrices=mattis&amp;posuere=nibh&amp;cubilia=ligula&amp;curae=nec&amp;donec=sem</t>
-  </si>
-  <si>
     <t xml:space="preserve">Etiam vel augue.</t>
   </si>
   <si>
@@ -3039,9 +2583,6 @@
   </si>
   <si>
     <t xml:space="preserve">988 120 1275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lpriter2p@yelp.com</t>
   </si>
   <si>
     <t xml:space="preserve">User-centric 3rd generation hardware</t>
@@ -3061,12 +2602,6 @@
   </si>
   <si>
     <t xml:space="preserve">bbowdler2q@storify.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bbowdler2q@people.com.cn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://nih.gov/lobortis/convallis/tortor/risus/dapibus.js?tincidunt=risus&amp;eget=dapibus&amp;tempus=augue&amp;vel=vel&amp;pede=accumsan&amp;morbi=tellus&amp;porttitor=nisi&amp;lorem=eu&amp;id=orci&amp;ligula=mauris&amp;suspendisse=lacinia&amp;ornare=sapien&amp;consequat=quis&amp;lectus=libero&amp;in=nullam&amp;est=sit&amp;risus=amet&amp;auctor=turpis&amp;sed=elementum&amp;tristique=ligula&amp;in=vehicula&amp;tempus=consequat&amp;sit=morbi&amp;amet=a&amp;sem=ipsum&amp;fusce=integer&amp;consequat=a&amp;nulla=nibh&amp;nisl=in&amp;nunc=quis&amp;nisl=justo&amp;duis=maecenas&amp;bibendum=rhoncus&amp;felis=aliquam&amp;sed=lacus&amp;interdum=morbi&amp;venenatis=quis&amp;turpis=tortor&amp;enim=id&amp;blandit=nulla&amp;mi=ultrices&amp;in=aliquet&amp;porttitor=maecenas&amp;pede=leo&amp;justo=odio&amp;eu=condimentum&amp;massa=id&amp;donec=luctus&amp;dapibus=nec&amp;duis=molestie&amp;at=sed&amp;velit=justo&amp;eu=pellentesque&amp;est=viverra&amp;congue=pede&amp;elementum=ac&amp;in=diam&amp;hac=cras&amp;habitasse=pellentesque&amp;platea=volutpat&amp;dictumst=dui&amp;morbi=maecenas&amp;vestibulum=tristique&amp;velit=est&amp;id=et&amp;pretium=tempus&amp;iaculis=semper&amp;diam=est&amp;erat=quam&amp;fermentum=pharetra&amp;justo=magna&amp;nec=ac&amp;condimentum=consequat&amp;neque=metus&amp;sapien=sapien&amp;placerat=ut&amp;ante=nunc&amp;nulla=vestibulum&amp;justo=ante&amp;aliquam=ipsum&amp;quis=primis&amp;turpis=in&amp;eget=faucibus&amp;elit=orci&amp;sodales=luctus&amp;scelerisque=et&amp;mauris=ultrices&amp;sit=posuere&amp;amet=cubilia&amp;eros=curae&amp;suspendisse=mauris&amp;accumsan=viverra&amp;tortor=diam</t>
   </si>
   <si>
     <t xml:space="preserve">Polarised 3rd generation initiative</t>
@@ -3099,6 +2634,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3189,7 +2725,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -3201,8 +2737,8 @@
   </sheetPr>
   <dimension ref="A1:AC101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="Z86" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z88" activeCellId="0" sqref="Z88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3211,7 +2747,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="136.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="136.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.01"/>
@@ -3226,7 +2762,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="27.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="94.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="94.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="120.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="122.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="208.52"/>
@@ -3327,7 +2863,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="166.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -3377,17 +2913,13 @@
         <v>40</v>
       </c>
       <c r="S2" s="1"/>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -3396,24 +2928,24 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="255.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="n">
@@ -3424,10 +2956,10 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -3439,70 +2971,68 @@
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Q4" s="1" t="n">
         <v>0</v>
@@ -3511,33 +3041,29 @@
         <v>40</v>
       </c>
       <c r="S4" s="1"/>
-      <c r="T4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
       <c r="V4" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="255.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>31</v>
@@ -3546,10 +3072,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="n">
@@ -3560,16 +3086,16 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="1" t="n">
         <v>0</v>
@@ -3579,28 +3105,26 @@
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AC5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="141" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>31</v>
@@ -3609,10 +3133,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="n">
@@ -3621,18 +3145,18 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="1" t="n">
         <v>0</v>
@@ -3642,9 +3166,7 @@
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
@@ -3654,50 +3176,50 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="280.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="Q7" s="1" t="n">
         <v>0</v>
@@ -3706,75 +3228,71 @@
         <v>40</v>
       </c>
       <c r="S7" s="1"/>
-      <c r="T7" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
       <c r="V7" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="267.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="Q8" s="1" t="n">
         <v>0</v>
@@ -3783,29 +3301,27 @@
         <v>40</v>
       </c>
       <c r="S8" s="1"/>
-      <c r="T8" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>31</v>
@@ -3814,13 +3330,13 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>0</v>
@@ -3829,19 +3345,19 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="Q9" s="1" t="n">
         <v>0</v>
@@ -3850,48 +3366,46 @@
         <v>40</v>
       </c>
       <c r="S9" s="1"/>
-      <c r="T9" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>1</v>
@@ -3899,20 +3413,20 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="1" t="n">
         <v>0</v>
@@ -3920,51 +3434,45 @@
       <c r="R10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>143</v>
-      </c>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="331.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>0</v>
@@ -3972,20 +3480,20 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="Q11" s="1" t="n">
         <v>0</v>
@@ -3994,15 +3502,11 @@
         <v>40</v>
       </c>
       <c r="S11" s="1"/>
-      <c r="T11" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>157</v>
-      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
@@ -4010,15 +3514,15 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>31</v>
@@ -4027,13 +3531,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>1</v>
@@ -4043,16 +3547,16 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="Q12" s="1" t="n">
         <v>0</v>
@@ -4061,29 +3565,27 @@
         <v>40</v>
       </c>
       <c r="S12" s="1"/>
-      <c r="T12" s="1" t="s">
-        <v>165</v>
-      </c>
+      <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>31</v>
@@ -4092,13 +3594,13 @@
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>1</v>
@@ -4106,20 +3608,20 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="Q13" s="1" t="n">
         <v>0</v>
@@ -4128,31 +3630,27 @@
         <v>40</v>
       </c>
       <c r="S13" s="1"/>
-      <c r="T13" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>176</v>
-      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
       <c r="V13" s="1" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>31</v>
@@ -4161,13 +3659,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>1</v>
@@ -4176,19 +3674,19 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="Q14" s="1" t="n">
         <v>0</v>
@@ -4196,19 +3694,13 @@
       <c r="R14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S14" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>188</v>
-      </c>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
@@ -4216,9 +3708,9 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="305.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>30</v>
@@ -4230,10 +3722,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="n">
@@ -4243,19 +3735,19 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="O15" s="1" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="Q15" s="1" t="n">
         <v>0</v>
@@ -4263,30 +3755,28 @@
       <c r="R15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>197</v>
-      </c>
+      <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="242.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>31</v>
@@ -4295,13 +3785,13 @@
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>0</v>
@@ -4311,16 +3801,16 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="Q16" s="1" t="n">
         <v>0</v>
@@ -4329,34 +3819,32 @@
         <v>40</v>
       </c>
       <c r="S16" s="1"/>
-      <c r="T16" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="AC16" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
@@ -4364,36 +3852,36 @@
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="1" t="n">
         <v>0</v>
@@ -4402,14 +3890,12 @@
         <v>40</v>
       </c>
       <c r="S17" s="1"/>
-      <c r="T17" s="1" t="s">
-        <v>218</v>
-      </c>
+      <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
@@ -4417,27 +3903,27 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="217.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>0</v>
@@ -4445,18 +3931,18 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="Q18" s="1" t="n">
         <v>0</v>
@@ -4465,30 +3951,26 @@
         <v>40</v>
       </c>
       <c r="S18" s="1"/>
-      <c r="T18" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>228</v>
-      </c>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="X18" s="1"/>
       <c r="Y18" s="1" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="AC18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="166.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>30</v>
@@ -4500,10 +3982,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="n">
@@ -4514,16 +3996,16 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="Q19" s="1" t="n">
         <v>0</v>
@@ -4533,30 +4015,28 @@
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
-      <c r="U19" s="1" t="s">
-        <v>239</v>
-      </c>
+      <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="166.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>31</v>
@@ -4565,38 +4045,38 @@
         <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="1" t="n">
         <v>0</v>
@@ -4605,9 +4085,7 @@
         <v>40</v>
       </c>
       <c r="S20" s="1"/>
-      <c r="T20" s="1" t="s">
-        <v>251</v>
-      </c>
+      <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
@@ -4615,19 +4093,19 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>31</v>
@@ -4636,36 +4114,36 @@
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="Q21" s="1" t="n">
         <v>0</v>
@@ -4674,45 +4152,41 @@
         <v>40</v>
       </c>
       <c r="S21" s="1"/>
-      <c r="T21" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>262</v>
-      </c>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="AC21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="267.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="n">
@@ -4723,14 +4197,14 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="Q22" s="1" t="n">
         <v>0</v>
@@ -4740,12 +4214,10 @@
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
-      <c r="U22" s="1" t="s">
-        <v>272</v>
-      </c>
+      <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
@@ -4753,27 +4225,27 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="217.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="n">
@@ -4784,16 +4256,16 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="Q23" s="1" t="n">
         <v>0</v>
@@ -4803,42 +4275,40 @@
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
-      <c r="U23" s="1" t="s">
-        <v>283</v>
-      </c>
+      <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="n">
@@ -4849,14 +4319,14 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="Q24" s="1" t="n">
         <v>0</v>
@@ -4866,30 +4336,28 @@
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
-      <c r="U24" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="U24" s="1"/>
       <c r="V24" s="1" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="217.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>31</v>
@@ -4898,32 +4366,32 @@
         <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="Q25" s="1" t="n">
         <v>0</v>
@@ -4936,25 +4404,25 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="X25" s="1"/>
       <c r="Y25" s="1" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="344" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>31</v>
@@ -4963,10 +4431,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="n">
@@ -4976,19 +4444,19 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="Q26" s="1" t="n">
         <v>0</v>
@@ -4998,42 +4466,40 @@
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
-      <c r="U26" s="1" t="s">
-        <v>310</v>
-      </c>
+      <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="217.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>34</v>
@@ -5044,18 +4510,18 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="Q27" s="1" t="n">
         <v>0</v>
@@ -5064,46 +4530,42 @@
         <v>40</v>
       </c>
       <c r="S27" s="1"/>
-      <c r="T27" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>321</v>
-      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
       <c r="V27" s="1" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="242.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>326</v>
+        <v>288</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>0</v>
@@ -5112,17 +4574,17 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="Q28" s="1" t="n">
         <v>0</v>
@@ -5131,31 +4593,29 @@
         <v>40</v>
       </c>
       <c r="S28" s="1"/>
-      <c r="T28" s="1" t="s">
-        <v>330</v>
-      </c>
+      <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="331.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>31</v>
@@ -5164,10 +4624,10 @@
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="n">
@@ -5177,19 +4637,19 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="Q29" s="1" t="n">
         <v>0</v>
@@ -5202,23 +4662,23 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="AC29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>31</v>
@@ -5227,10 +4687,10 @@
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="n">
@@ -5239,20 +4699,20 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="Q30" s="1" t="n">
         <v>0</v>
@@ -5262,64 +4722,62 @@
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
-      <c r="U30" s="1" t="s">
-        <v>348</v>
-      </c>
+      <c r="U30" s="1"/>
       <c r="V30" s="1" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="344" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="Q31" s="1" t="n">
         <v>0</v>
@@ -5329,40 +4787,38 @@
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
-      <c r="U31" s="1" t="s">
-        <v>358</v>
-      </c>
+      <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1" t="s">
-        <v>359</v>
+        <v>318</v>
       </c>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="255.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>360</v>
+        <v>319</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>362</v>
+        <v>321</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>34</v>
@@ -5375,16 +4831,16 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1" t="s">
-        <v>363</v>
+        <v>322</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>364</v>
+        <v>323</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>365</v>
+        <v>324</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="Q32" s="1" t="n">
         <v>0</v>
@@ -5393,29 +4849,27 @@
         <v>40</v>
       </c>
       <c r="S32" s="1"/>
-      <c r="T32" s="1" t="s">
-        <v>367</v>
-      </c>
+      <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>368</v>
+        <v>326</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="255.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>31</v>
@@ -5424,10 +4878,10 @@
         <v>0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>370</v>
+        <v>328</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="n">
@@ -5436,20 +4890,20 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>371</v>
+        <v>329</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>372</v>
+        <v>330</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1" t="s">
-        <v>374</v>
+        <v>332</v>
       </c>
       <c r="Q33" s="1" t="n">
         <v>0</v>
@@ -5459,19 +4913,17 @@
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
-      <c r="U33" s="1" t="s">
-        <v>375</v>
-      </c>
+      <c r="U33" s="1"/>
       <c r="V33" s="1" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>377</v>
+        <v>334</v>
       </c>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1" t="s">
-        <v>378</v>
+        <v>335</v>
       </c>
       <c r="AA33" s="1" t="s">
         <v>32</v>
@@ -5479,50 +4931,50 @@
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>380</v>
+        <v>337</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>381</v>
+        <v>338</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>382</v>
+        <v>339</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1" t="s">
-        <v>383</v>
+        <v>340</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>384</v>
+        <v>341</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>386</v>
+        <v>343</v>
       </c>
       <c r="Q34" s="1" t="n">
         <v>0</v>
@@ -5531,45 +4983,41 @@
         <v>40</v>
       </c>
       <c r="S34" s="1"/>
-      <c r="T34" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>388</v>
-      </c>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="X34" s="1"/>
       <c r="Y34" s="1" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="AC34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="255.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="n">
@@ -5580,16 +5028,16 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="Q35" s="1" t="n">
         <v>0</v>
@@ -5599,25 +5047,23 @@
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
-      <c r="U35" s="1" t="s">
-        <v>395</v>
-      </c>
+      <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1" t="s">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1" t="s">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="AC35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>30</v>
@@ -5629,36 +5075,36 @@
         <v>0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>399</v>
+        <v>353</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>400</v>
+        <v>354</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="H36" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>401</v>
+        <v>355</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1" t="s">
-        <v>402</v>
+        <v>356</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>403</v>
+        <v>357</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>404</v>
+        <v>358</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>405</v>
+        <v>359</v>
       </c>
       <c r="Q36" s="1" t="n">
         <v>0</v>
@@ -5667,49 +5113,45 @@
         <v>40</v>
       </c>
       <c r="S36" s="1"/>
-      <c r="T36" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>407</v>
-      </c>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
       <c r="V36" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="217.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>412</v>
+        <v>364</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="n">
@@ -5719,19 +5161,19 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>415</v>
+        <v>367</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>416</v>
+        <v>368</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>417</v>
+        <v>369</v>
       </c>
       <c r="Q37" s="1" t="n">
         <v>0</v>
@@ -5741,51 +5183,49 @@
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
-      <c r="U37" s="1" t="s">
-        <v>418</v>
-      </c>
+      <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>419</v>
+        <v>370</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>420</v>
+        <v>371</v>
       </c>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>421</v>
+        <v>372</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>424</v>
+        <v>375</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>425</v>
+        <v>376</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H38" s="1" t="n">
         <v>0</v>
@@ -5794,19 +5234,19 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>426</v>
+        <v>377</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>427</v>
+        <v>378</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>428</v>
+        <v>379</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>429</v>
+        <v>380</v>
       </c>
       <c r="Q38" s="1" t="n">
         <v>0</v>
@@ -5814,72 +5254,66 @@
       <c r="R38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S38" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="T38" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="U38" s="1" t="s">
-        <v>432</v>
-      </c>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1" t="s">
-        <v>433</v>
+        <v>381</v>
       </c>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1" t="s">
-        <v>434</v>
+        <v>382</v>
       </c>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="255.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>435</v>
+        <v>383</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>436</v>
+        <v>384</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H39" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
       <c r="Q39" s="1" t="n">
         <v>0</v>
@@ -5888,14 +5322,10 @@
         <v>40</v>
       </c>
       <c r="S39" s="1"/>
-      <c r="T39" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>444</v>
-      </c>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
       <c r="V39" s="1" t="s">
-        <v>436</v>
+        <v>384</v>
       </c>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
@@ -5903,31 +5333,31 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1" t="s">
-        <v>445</v>
+        <v>391</v>
       </c>
       <c r="AC39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>446</v>
+        <v>392</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>447</v>
+        <v>393</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H40" s="1" t="n">
         <v>1</v>
@@ -5935,22 +5365,22 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>445</v>
+        <v>391</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>448</v>
+        <v>394</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>449</v>
+        <v>395</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>450</v>
+        <v>396</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>451</v>
+        <v>397</v>
       </c>
       <c r="Q40" s="1" t="n">
         <v>0</v>
@@ -5959,31 +5389,29 @@
         <v>40</v>
       </c>
       <c r="S40" s="1"/>
-      <c r="T40" s="1" t="s">
-        <v>452</v>
-      </c>
+      <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1" t="s">
-        <v>453</v>
+        <v>398</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>454</v>
+        <v>399</v>
       </c>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1" t="s">
-        <v>455</v>
+        <v>400</v>
       </c>
       <c r="AC40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="369.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>456</v>
+        <v>401</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>31</v>
@@ -5992,13 +5420,13 @@
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>457</v>
+        <v>402</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H41" s="1" t="n">
         <v>1</v>
@@ -6007,19 +5435,19 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>458</v>
+        <v>403</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>459</v>
+        <v>404</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>460</v>
+        <v>405</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>461</v>
+        <v>406</v>
       </c>
       <c r="Q41" s="1" t="n">
         <v>0</v>
@@ -6028,70 +5456,66 @@
         <v>40</v>
       </c>
       <c r="S41" s="1"/>
-      <c r="T41" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="U41" s="1" t="s">
-        <v>463</v>
-      </c>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
       <c r="V41" s="1"/>
       <c r="W41" s="1" t="s">
-        <v>464</v>
+        <v>407</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>465</v>
+        <v>408</v>
       </c>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1" t="s">
-        <v>466</v>
+        <v>409</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="AC41" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="166.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>467</v>
+        <v>410</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>468</v>
+        <v>411</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>469</v>
+        <v>412</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>470</v>
+        <v>413</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1" t="s">
-        <v>471</v>
+        <v>414</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>472</v>
+        <v>415</v>
       </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="1" t="n">
@@ -6100,36 +5524,30 @@
       <c r="R42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S42" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="T42" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="U42" s="1" t="s">
-        <v>475</v>
-      </c>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
       <c r="Y42" s="1" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>477</v>
+        <v>417</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>478</v>
+        <v>418</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>31</v>
@@ -6138,13 +5556,13 @@
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>479</v>
+        <v>419</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H43" s="1" t="n">
         <v>0</v>
@@ -6154,14 +5572,14 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1" t="s">
-        <v>481</v>
+        <v>421</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>482</v>
+        <v>422</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1" t="s">
-        <v>483</v>
+        <v>423</v>
       </c>
       <c r="Q43" s="1" t="n">
         <v>0</v>
@@ -6170,32 +5588,28 @@
         <v>40</v>
       </c>
       <c r="S43" s="1"/>
-      <c r="T43" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>485</v>
-      </c>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
       <c r="V43" s="1" t="s">
-        <v>486</v>
+        <v>424</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>487</v>
+        <v>425</v>
       </c>
       <c r="X43" s="1"/>
       <c r="Y43" s="1" t="s">
-        <v>488</v>
+        <v>426</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1" t="s">
-        <v>489</v>
+        <v>427</v>
       </c>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>490</v>
+        <v>428</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>30</v>
@@ -6207,34 +5621,34 @@
         <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>491</v>
+        <v>429</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>492</v>
+        <v>430</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>493</v>
+        <v>431</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1" t="s">
-        <v>494</v>
+        <v>432</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>495</v>
+        <v>433</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>496</v>
+        <v>434</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>497</v>
+        <v>435</v>
       </c>
       <c r="Q44" s="1" t="n">
         <v>0</v>
@@ -6248,19 +5662,19 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1" t="s">
-        <v>498</v>
+        <v>436</v>
       </c>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
     </row>
-    <row r="45" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="344" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>499</v>
+        <v>437</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>30</v>
@@ -6272,13 +5686,13 @@
         <v>0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H45" s="1" t="n">
         <v>1</v>
@@ -6288,12 +5702,12 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1" t="s">
-        <v>501</v>
+        <v>439</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1" t="s">
-        <v>502</v>
+        <v>440</v>
       </c>
       <c r="Q45" s="1" t="n">
         <v>0</v>
@@ -6302,67 +5716,63 @@
         <v>40</v>
       </c>
       <c r="S45" s="1"/>
-      <c r="T45" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="U45" s="1" t="s">
-        <v>504</v>
-      </c>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
     </row>
-    <row r="46" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>505</v>
+        <v>441</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>506</v>
+        <v>442</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>507</v>
+        <v>443</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H46" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>508</v>
+        <v>444</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>509</v>
+        <v>445</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>510</v>
+        <v>446</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1" t="s">
-        <v>511</v>
+        <v>447</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>512</v>
+        <v>448</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>513</v>
+        <v>449</v>
       </c>
       <c r="Q46" s="1" t="n">
         <v>0</v>
@@ -6371,46 +5781,44 @@
         <v>40</v>
       </c>
       <c r="S46" s="1"/>
-      <c r="T46" s="1" t="s">
-        <v>514</v>
-      </c>
+      <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1" t="s">
-        <v>515</v>
+        <v>450</v>
       </c>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1" t="s">
-        <v>516</v>
+        <v>451</v>
       </c>
       <c r="AC46" s="1"/>
     </row>
-    <row r="47" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>517</v>
+        <v>452</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>518</v>
+        <v>453</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>519</v>
+        <v>454</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H47" s="1" t="n">
         <v>0</v>
@@ -6420,14 +5828,14 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1" t="s">
-        <v>520</v>
+        <v>455</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1" t="s">
-        <v>521</v>
+        <v>456</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>522</v>
+        <v>457</v>
       </c>
       <c r="Q47" s="1" t="n">
         <v>0</v>
@@ -6435,38 +5843,32 @@
       <c r="R47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S47" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="T47" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="U47" s="1" t="s">
-        <v>525</v>
-      </c>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
       <c r="V47" s="1"/>
       <c r="W47" s="1" t="s">
-        <v>508</v>
+        <v>444</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="AA47" s="1" t="s">
-        <v>526</v>
+        <v>458</v>
       </c>
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>527</v>
+        <v>459</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>31</v>
@@ -6475,13 +5877,13 @@
         <v>0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>528</v>
+        <v>460</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H48" s="1" t="n">
         <v>1</v>
@@ -6491,16 +5893,16 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1" t="s">
-        <v>529</v>
+        <v>461</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>530</v>
+        <v>462</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>531</v>
+        <v>463</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>532</v>
+        <v>464</v>
       </c>
       <c r="Q48" s="1" t="n">
         <v>0</v>
@@ -6509,65 +5911,63 @@
         <v>40</v>
       </c>
       <c r="S48" s="1"/>
-      <c r="T48" s="1" t="s">
-        <v>533</v>
-      </c>
+      <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1" t="s">
-        <v>534</v>
+        <v>465</v>
       </c>
       <c r="AC48" s="1"/>
     </row>
-    <row r="49" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>535</v>
+        <v>466</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D49" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>536</v>
+        <v>467</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H49" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>537</v>
+        <v>468</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>538</v>
+        <v>469</v>
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1" t="s">
-        <v>539</v>
+        <v>470</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>541</v>
+        <v>472</v>
       </c>
       <c r="Q49" s="1" t="n">
         <v>0</v>
@@ -6576,37 +5976,33 @@
         <v>40</v>
       </c>
       <c r="S49" s="1"/>
-      <c r="T49" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="U49" s="1" t="s">
-        <v>543</v>
-      </c>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
       <c r="V49" s="1" t="s">
-        <v>544</v>
+        <v>473</v>
       </c>
       <c r="W49" s="1"/>
       <c r="X49" s="1" t="s">
-        <v>545</v>
+        <v>474</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>546</v>
+        <v>475</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="AB49" s="1" t="s">
-        <v>547</v>
+        <v>476</v>
       </c>
       <c r="AC49" s="1"/>
     </row>
-    <row r="50" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="344" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>548</v>
+        <v>477</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>31</v>
@@ -6615,13 +6011,13 @@
         <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>549</v>
+        <v>478</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H50" s="1" t="n">
         <v>1</v>
@@ -6631,16 +6027,16 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1" t="s">
-        <v>550</v>
+        <v>479</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>551</v>
+        <v>480</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>552</v>
+        <v>481</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>553</v>
+        <v>482</v>
       </c>
       <c r="Q50" s="1" t="n">
         <v>0</v>
@@ -6648,49 +6044,43 @@
       <c r="R50" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S50" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="T50" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="U50" s="1" t="s">
-        <v>556</v>
-      </c>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
       <c r="AC50" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="255.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>557</v>
+        <v>483</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>558</v>
+        <v>484</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H51" s="1" t="n">
         <v>0</v>
@@ -6699,15 +6089,15 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>559</v>
+        <v>485</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1" t="s">
-        <v>560</v>
+        <v>486</v>
       </c>
       <c r="Q51" s="1" t="n">
         <v>0</v>
@@ -6716,65 +6106,63 @@
         <v>40</v>
       </c>
       <c r="S51" s="1"/>
-      <c r="T51" s="1" t="s">
-        <v>561</v>
-      </c>
+      <c r="T51" s="1"/>
       <c r="U51" s="1"/>
       <c r="V51" s="1" t="s">
-        <v>562</v>
+        <v>487</v>
       </c>
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1" t="s">
-        <v>479</v>
+        <v>419</v>
       </c>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
     </row>
-    <row r="52" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="318.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>563</v>
+        <v>488</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D52" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>564</v>
+        <v>489</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>565</v>
+        <v>490</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="H52" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>498</v>
+        <v>436</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>566</v>
+        <v>491</v>
       </c>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1" t="s">
-        <v>567</v>
+        <v>492</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1" t="s">
-        <v>568</v>
+        <v>493</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>569</v>
+        <v>494</v>
       </c>
       <c r="Q52" s="1" t="n">
         <v>0</v>
@@ -6783,33 +6171,29 @@
         <v>40</v>
       </c>
       <c r="S52" s="1"/>
-      <c r="T52" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="U52" s="1" t="s">
-        <v>571</v>
-      </c>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
       <c r="V52" s="1" t="s">
-        <v>572</v>
+        <v>495</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>573</v>
+        <v>496</v>
       </c>
       <c r="X52" s="1"/>
       <c r="Y52" s="1" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
     </row>
-    <row r="53" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>574</v>
+        <v>497</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>31</v>
@@ -6818,10 +6202,10 @@
         <v>1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="n">
@@ -6830,18 +6214,18 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1" t="s">
-        <v>575</v>
+        <v>498</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1" t="s">
-        <v>576</v>
+        <v>499</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>577</v>
+        <v>500</v>
       </c>
       <c r="Q53" s="1" t="n">
         <v>0</v>
@@ -6853,59 +6237,59 @@
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
       <c r="V53" s="1" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1" t="s">
-        <v>578</v>
+        <v>501</v>
       </c>
       <c r="AB53" s="1"/>
       <c r="AC53" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>580</v>
+        <v>503</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D54" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>581</v>
+        <v>504</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="H54" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>582</v>
+        <v>505</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>583</v>
+        <v>506</v>
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1" t="s">
-        <v>584</v>
+        <v>507</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1" t="s">
-        <v>585</v>
+        <v>508</v>
       </c>
       <c r="P54" s="1"/>
       <c r="Q54" s="1" t="n">
@@ -6915,45 +6299,41 @@
         <v>40</v>
       </c>
       <c r="S54" s="1"/>
-      <c r="T54" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="U54" s="1" t="s">
-        <v>587</v>
-      </c>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
       <c r="X54" s="1" t="s">
-        <v>588</v>
+        <v>509</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1" t="s">
-        <v>589</v>
+        <v>510</v>
       </c>
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
     </row>
-    <row r="55" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="217.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>590</v>
+        <v>511</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D55" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>591</v>
+        <v>512</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>592</v>
+        <v>513</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>34</v>
@@ -6962,24 +6342,24 @@
         <v>0</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>593</v>
+        <v>514</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1" t="s">
-        <v>594</v>
+        <v>515</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>595</v>
+        <v>516</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>596</v>
+        <v>517</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>597</v>
+        <v>518</v>
       </c>
       <c r="Q55" s="1" t="n">
         <v>0</v>
@@ -6988,31 +6368,29 @@
         <v>40</v>
       </c>
       <c r="S55" s="1"/>
-      <c r="T55" s="1" t="s">
-        <v>598</v>
-      </c>
+      <c r="T55" s="1"/>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
       <c r="W55" s="1" t="s">
-        <v>599</v>
+        <v>519</v>
       </c>
       <c r="X55" s="1" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
       <c r="AB55" s="1" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="AC55" s="1"/>
     </row>
-    <row r="56" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="382.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>31</v>
@@ -7021,13 +6399,13 @@
         <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>601</v>
+        <v>521</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>602</v>
+        <v>522</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H56" s="1" t="n">
         <v>1</v>
@@ -7037,14 +6415,14 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1" t="s">
-        <v>603</v>
+        <v>523</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1" t="s">
-        <v>604</v>
+        <v>524</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>605</v>
+        <v>525</v>
       </c>
       <c r="Q56" s="1" t="n">
         <v>0</v>
@@ -7053,47 +6431,43 @@
         <v>40</v>
       </c>
       <c r="S56" s="1"/>
-      <c r="T56" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="U56" s="1" t="s">
-        <v>607</v>
-      </c>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
       <c r="V56" s="1" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>608</v>
+        <v>526</v>
       </c>
       <c r="X56" s="1"/>
       <c r="Y56" s="1" t="s">
-        <v>434</v>
+        <v>382</v>
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
       <c r="AB56" s="1" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="AC56" s="1"/>
     </row>
-    <row r="57" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="255.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>609</v>
+        <v>527</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D57" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>378</v>
+        <v>335</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>362</v>
+        <v>321</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="n">
@@ -7102,20 +6476,20 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1" t="s">
-        <v>610</v>
+        <v>528</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>611</v>
+        <v>529</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>612</v>
+        <v>530</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>613</v>
+        <v>531</v>
       </c>
       <c r="Q57" s="1" t="n">
         <v>0</v>
@@ -7125,34 +6499,32 @@
       </c>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
-      <c r="U57" s="1" t="s">
-        <v>614</v>
-      </c>
+      <c r="U57" s="1"/>
       <c r="V57" s="1" t="s">
-        <v>445</v>
+        <v>391</v>
       </c>
       <c r="W57" s="1"/>
       <c r="X57" s="1" t="s">
-        <v>615</v>
+        <v>532</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>616</v>
+        <v>533</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="AA57" s="1"/>
       <c r="AB57" s="1" t="s">
-        <v>518</v>
+        <v>453</v>
       </c>
       <c r="AC57" s="1"/>
     </row>
-    <row r="58" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>617</v>
+        <v>534</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>31</v>
@@ -7161,13 +6533,13 @@
         <v>0</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>618</v>
+        <v>535</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>619</v>
+        <v>536</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H58" s="1" t="n">
         <v>0</v>
@@ -7177,16 +6549,16 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1" t="s">
-        <v>620</v>
+        <v>537</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>621</v>
+        <v>538</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>622</v>
+        <v>539</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>623</v>
+        <v>540</v>
       </c>
       <c r="Q58" s="1" t="n">
         <v>0</v>
@@ -7194,38 +6566,32 @@
       <c r="R58" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S58" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="T58" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="U58" s="1" t="s">
-        <v>626</v>
-      </c>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
       <c r="V58" s="1" t="s">
-        <v>627</v>
+        <v>541</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>628</v>
+        <v>542</v>
       </c>
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
       <c r="Z58" s="1" t="s">
-        <v>629</v>
+        <v>543</v>
       </c>
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
       <c r="AC58" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>631</v>
+        <v>545</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>31</v>
@@ -7234,13 +6600,13 @@
         <v>1</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>632</v>
+        <v>546</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>400</v>
+        <v>354</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H59" s="1" t="n">
         <v>1</v>
@@ -7249,19 +6615,19 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>633</v>
+        <v>547</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>634</v>
+        <v>548</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>635</v>
+        <v>549</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>636</v>
+        <v>550</v>
       </c>
       <c r="Q59" s="1" t="n">
         <v>0</v>
@@ -7270,15 +6636,13 @@
         <v>40</v>
       </c>
       <c r="S59" s="1"/>
-      <c r="T59" s="1" t="s">
-        <v>637</v>
-      </c>
+      <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
@@ -7287,12 +6651,12 @@
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
     </row>
-    <row r="60" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>638</v>
+        <v>551</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>31</v>
@@ -7301,10 +6665,10 @@
         <v>1</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>546</v>
+        <v>475</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>400</v>
+        <v>354</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>34</v>
@@ -7317,16 +6681,16 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1" t="s">
-        <v>639</v>
+        <v>552</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>640</v>
+        <v>553</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>641</v>
+        <v>554</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>642</v>
+        <v>555</v>
       </c>
       <c r="Q60" s="1" t="n">
         <v>0</v>
@@ -7335,9 +6699,7 @@
         <v>40</v>
       </c>
       <c r="S60" s="1"/>
-      <c r="T60" s="1" t="s">
-        <v>643</v>
-      </c>
+      <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
@@ -7348,24 +6710,24 @@
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
     </row>
-    <row r="61" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="267.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>644</v>
+        <v>556</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>645</v>
+        <v>557</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>646</v>
+        <v>558</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>34</v>
@@ -7376,11 +6738,11 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1" t="s">
-        <v>647</v>
+        <v>559</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1" t="s">
-        <v>648</v>
+        <v>560</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -7392,50 +6754,46 @@
         <v>40</v>
       </c>
       <c r="S61" s="1"/>
-      <c r="T61" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="U61" s="1" t="s">
-        <v>650</v>
-      </c>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
       <c r="V61" s="1"/>
       <c r="W61" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
       <c r="Z61" s="1" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="AA61" s="1"/>
       <c r="AB61" s="1" t="s">
-        <v>651</v>
+        <v>561</v>
       </c>
       <c r="AC61" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="344" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>652</v>
+        <v>562</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D62" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>653</v>
+        <v>563</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="H62" s="1" t="n">
         <v>1</v>
@@ -7445,14 +6803,14 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1" t="s">
-        <v>654</v>
+        <v>564</v>
       </c>
       <c r="N62" s="1"/>
       <c r="O62" s="1" t="s">
-        <v>655</v>
+        <v>565</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>656</v>
+        <v>566</v>
       </c>
       <c r="Q62" s="1" t="n">
         <v>0</v>
@@ -7460,50 +6818,44 @@
       <c r="R62" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S62" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="T62" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="U62" s="1" t="s">
-        <v>659</v>
-      </c>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
       <c r="X62" s="1" t="s">
-        <v>660</v>
+        <v>567</v>
       </c>
       <c r="Y62" s="1"/>
       <c r="Z62" s="1" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>661</v>
+        <v>568</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>662</v>
+        <v>569</v>
       </c>
       <c r="AC62" s="1"/>
     </row>
-    <row r="63" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="344" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>663</v>
+        <v>570</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D63" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>664</v>
+        <v>571</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>653</v>
+        <v>563</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>34</v>
@@ -7516,13 +6868,13 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1" t="s">
-        <v>665</v>
+        <v>572</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>666</v>
+        <v>573</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>667</v>
+        <v>574</v>
       </c>
       <c r="P63" s="1"/>
       <c r="Q63" s="1" t="n">
@@ -7532,35 +6884,31 @@
         <v>40</v>
       </c>
       <c r="S63" s="1"/>
-      <c r="T63" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="U63" s="1" t="s">
-        <v>669</v>
-      </c>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
       <c r="V63" s="1" t="s">
-        <v>670</v>
+        <v>575</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="X63" s="1"/>
       <c r="Y63" s="1" t="s">
-        <v>671</v>
+        <v>576</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>582</v>
+        <v>505</v>
       </c>
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
       <c r="AC63" s="1"/>
     </row>
-    <row r="64" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>672</v>
+        <v>577</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>31</v>
@@ -7569,13 +6917,13 @@
         <v>0</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H64" s="1" t="n">
         <v>1</v>
@@ -7585,14 +6933,14 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1" t="s">
-        <v>673</v>
+        <v>578</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>674</v>
+        <v>579</v>
       </c>
       <c r="O64" s="1"/>
       <c r="P64" s="1" t="s">
-        <v>675</v>
+        <v>580</v>
       </c>
       <c r="Q64" s="1" t="n">
         <v>0</v>
@@ -7601,67 +6949,63 @@
         <v>40</v>
       </c>
       <c r="S64" s="1"/>
-      <c r="T64" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="U64" s="1" t="s">
-        <v>677</v>
-      </c>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
       <c r="V64" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="W64" s="1" t="s">
-        <v>678</v>
+        <v>581</v>
       </c>
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
       <c r="Z64" s="1" t="s">
-        <v>679</v>
+        <v>582</v>
       </c>
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
     </row>
-    <row r="65" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>680</v>
+        <v>583</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D65" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>681</v>
+        <v>584</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>536</v>
+        <v>467</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>682</v>
+        <v>585</v>
       </c>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1" t="s">
-        <v>683</v>
+        <v>586</v>
       </c>
       <c r="N65" s="1"/>
       <c r="O65" s="1" t="s">
-        <v>684</v>
+        <v>587</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>685</v>
+        <v>588</v>
       </c>
       <c r="Q65" s="1" t="n">
         <v>0</v>
@@ -7669,70 +7013,66 @@
       <c r="R65" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S65" s="1" t="s">
-        <v>686</v>
-      </c>
+      <c r="S65" s="1"/>
       <c r="T65" s="1"/>
-      <c r="U65" s="1" t="s">
-        <v>687</v>
-      </c>
+      <c r="U65" s="1"/>
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
       <c r="X65" s="1" t="s">
-        <v>671</v>
+        <v>576</v>
       </c>
       <c r="Y65" s="1" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="Z65" s="1" t="s">
-        <v>688</v>
+        <v>589</v>
       </c>
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
       <c r="AC65" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>689</v>
+        <v>590</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D66" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>690</v>
+        <v>591</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>691</v>
+        <v>592</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>690</v>
+        <v>591</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>692</v>
+        <v>593</v>
       </c>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1" t="s">
-        <v>693</v>
+        <v>594</v>
       </c>
       <c r="N66" s="1"/>
       <c r="O66" s="1" t="s">
-        <v>694</v>
+        <v>595</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>695</v>
+        <v>596</v>
       </c>
       <c r="Q66" s="1" t="n">
         <v>0</v>
@@ -7748,18 +7088,18 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
       <c r="Z66" s="1" t="s">
-        <v>688</v>
+        <v>589</v>
       </c>
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
       <c r="AC66" s="1"/>
     </row>
-    <row r="67" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>696</v>
+        <v>597</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>31</v>
@@ -7768,13 +7108,13 @@
         <v>1</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>697</v>
+        <v>598</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H67" s="1" t="n">
         <v>1</v>
@@ -7784,16 +7124,16 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1" t="s">
-        <v>698</v>
+        <v>599</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>699</v>
+        <v>600</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>700</v>
+        <v>601</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>701</v>
+        <v>602</v>
       </c>
       <c r="Q67" s="1" t="n">
         <v>0</v>
@@ -7802,31 +7142,27 @@
         <v>40</v>
       </c>
       <c r="S67" s="1"/>
-      <c r="T67" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="U67" s="1" t="s">
-        <v>703</v>
-      </c>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AA67" s="1" t="s">
-        <v>704</v>
+        <v>603</v>
       </c>
       <c r="AB67" s="1"/>
       <c r="AC67" s="1"/>
     </row>
-    <row r="68" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="141" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>705</v>
+        <v>604</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>31</v>
@@ -7835,10 +7171,10 @@
         <v>0</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>706</v>
+        <v>605</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1" t="n">
@@ -7847,18 +7183,18 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1" t="s">
-        <v>707</v>
+        <v>606</v>
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="1" t="s">
-        <v>708</v>
+        <v>607</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>709</v>
+        <v>608</v>
       </c>
       <c r="Q68" s="1" t="n">
         <v>0</v>
@@ -7868,74 +7204,72 @@
       </c>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
-      <c r="U68" s="1" t="s">
-        <v>710</v>
-      </c>
+      <c r="U68" s="1"/>
       <c r="V68" s="1" t="s">
-        <v>711</v>
+        <v>609</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>712</v>
+        <v>610</v>
       </c>
       <c r="X68" s="1" t="s">
-        <v>547</v>
+        <v>476</v>
       </c>
       <c r="Y68" s="1"/>
       <c r="Z68" s="1" t="s">
-        <v>713</v>
+        <v>611</v>
       </c>
       <c r="AA68" s="1" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="AB68" s="1"/>
       <c r="AC68" s="1"/>
     </row>
-    <row r="69" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="293.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>714</v>
+        <v>612</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D69" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>715</v>
+        <v>613</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>716</v>
+        <v>614</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H69" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>717</v>
+        <v>615</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>718</v>
+        <v>616</v>
       </c>
       <c r="K69" s="1"/>
       <c r="L69" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>719</v>
+        <v>617</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>720</v>
+        <v>618</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>721</v>
+        <v>619</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>722</v>
+        <v>620</v>
       </c>
       <c r="Q69" s="1" t="n">
         <v>0</v>
@@ -7944,9 +7278,7 @@
         <v>40</v>
       </c>
       <c r="S69" s="1"/>
-      <c r="T69" s="1" t="s">
-        <v>723</v>
-      </c>
+      <c r="T69" s="1"/>
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
@@ -7954,34 +7286,34 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1" t="s">
-        <v>589</v>
+        <v>510</v>
       </c>
       <c r="AB69" s="1"/>
       <c r="AC69" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>724</v>
+        <v>621</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D70" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>725</v>
+        <v>622</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H70" s="1" t="n">
         <v>1</v>
@@ -7989,20 +7321,20 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1" t="s">
-        <v>726</v>
+        <v>623</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1" t="s">
-        <v>727</v>
+        <v>624</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>728</v>
+        <v>625</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>729</v>
+        <v>626</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>730</v>
+        <v>627</v>
       </c>
       <c r="Q70" s="1" t="n">
         <v>0</v>
@@ -8011,40 +7343,36 @@
         <v>40</v>
       </c>
       <c r="S70" s="1"/>
-      <c r="T70" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="U70" s="1" t="s">
-        <v>732</v>
-      </c>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
       <c r="V70" s="1"/>
       <c r="W70" s="1" t="s">
-        <v>733</v>
+        <v>628</v>
       </c>
       <c r="X70" s="1" t="s">
-        <v>734</v>
+        <v>629</v>
       </c>
       <c r="Y70" s="1" t="s">
-        <v>735</v>
+        <v>630</v>
       </c>
       <c r="Z70" s="1" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="AA70" s="1" t="s">
-        <v>736</v>
+        <v>631</v>
       </c>
       <c r="AB70" s="1"/>
       <c r="AC70" s="1"/>
     </row>
-    <row r="71" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="255.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>737</v>
+        <v>632</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D71" s="1" t="n">
         <v>0</v>
@@ -8053,7 +7381,7 @@
         <v>32</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>738</v>
+        <v>633</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>34</v>
@@ -8062,22 +7390,22 @@
         <v>1</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>526</v>
+        <v>458</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>739</v>
+        <v>634</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1" t="s">
-        <v>740</v>
+        <v>635</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>741</v>
+        <v>636</v>
       </c>
       <c r="O71" s="1"/>
       <c r="P71" s="1" t="s">
-        <v>742</v>
+        <v>637</v>
       </c>
       <c r="Q71" s="1" t="n">
         <v>0</v>
@@ -8086,12 +7414,8 @@
         <v>40</v>
       </c>
       <c r="S71" s="1"/>
-      <c r="T71" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="U71" s="1" t="s">
-        <v>744</v>
-      </c>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
@@ -8099,33 +7423,33 @@
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
       <c r="AB71" s="1" t="s">
-        <v>745</v>
+        <v>638</v>
       </c>
       <c r="AC71" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="318.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>746</v>
+        <v>639</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D72" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>747</v>
+        <v>640</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>748</v>
+        <v>641</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H72" s="1" t="n">
         <v>0</v>
@@ -8133,20 +7457,20 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1" t="s">
-        <v>749</v>
+        <v>642</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1" t="s">
-        <v>750</v>
+        <v>643</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>751</v>
+        <v>644</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>752</v>
+        <v>645</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>753</v>
+        <v>646</v>
       </c>
       <c r="Q72" s="1" t="n">
         <v>0</v>
@@ -8155,13 +7479,11 @@
         <v>40</v>
       </c>
       <c r="S72" s="1"/>
-      <c r="T72" s="1" t="s">
-        <v>754</v>
-      </c>
+      <c r="T72" s="1"/>
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
       <c r="W72" s="1" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
@@ -8169,15 +7491,15 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
       <c r="AC72" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="141" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>755</v>
+        <v>647</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>31</v>
@@ -8186,32 +7508,32 @@
         <v>0</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>618</v>
+        <v>535</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>756</v>
+        <v>648</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>660</v>
+        <v>567</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>757</v>
+        <v>649</v>
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1" t="s">
-        <v>758</v>
+        <v>650</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1" t="s">
-        <v>759</v>
+        <v>651</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>760</v>
+        <v>652</v>
       </c>
       <c r="Q73" s="1" t="n">
         <v>0</v>
@@ -8221,45 +7543,43 @@
       </c>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
-      <c r="U73" s="1" t="s">
-        <v>761</v>
-      </c>
+      <c r="U73" s="1"/>
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
       <c r="X73" s="1" t="s">
-        <v>681</v>
+        <v>584</v>
       </c>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
       <c r="AB73" s="1" t="s">
-        <v>608</v>
+        <v>526</v>
       </c>
       <c r="AC73" s="1" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>763</v>
+        <v>654</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D74" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H74" s="1" t="n">
         <v>1</v>
@@ -8269,16 +7589,16 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1" t="s">
-        <v>764</v>
+        <v>655</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>765</v>
+        <v>656</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>766</v>
+        <v>657</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>767</v>
+        <v>658</v>
       </c>
       <c r="Q74" s="1" t="n">
         <v>0</v>
@@ -8287,14 +7607,10 @@
         <v>40</v>
       </c>
       <c r="S74" s="1"/>
-      <c r="T74" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="U74" s="1" t="s">
-        <v>769</v>
-      </c>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
       <c r="V74" s="1" t="s">
-        <v>770</v>
+        <v>659</v>
       </c>
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
@@ -8304,12 +7620,12 @@
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
     </row>
-    <row r="75" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>771</v>
+        <v>660</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>31</v>
@@ -8318,10 +7634,10 @@
         <v>1</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>704</v>
+        <v>603</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>772</v>
+        <v>661</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>34</v>
@@ -8330,22 +7646,22 @@
         <v>0</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>578</v>
+        <v>501</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>773</v>
+        <v>662</v>
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1" t="s">
-        <v>774</v>
+        <v>663</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>775</v>
+        <v>664</v>
       </c>
       <c r="O75" s="1"/>
       <c r="P75" s="1" t="s">
-        <v>776</v>
+        <v>665</v>
       </c>
       <c r="Q75" s="1" t="n">
         <v>0</v>
@@ -8354,20 +7670,16 @@
         <v>40</v>
       </c>
       <c r="S75" s="1"/>
-      <c r="T75" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="U75" s="1" t="s">
-        <v>778</v>
-      </c>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
       <c r="V75" s="1" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="W75" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="X75" s="1" t="s">
-        <v>779</v>
+        <v>666</v>
       </c>
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
@@ -8375,27 +7687,27 @@
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
     </row>
-    <row r="76" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="255.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>780</v>
+        <v>667</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D76" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>662</v>
+        <v>569</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H76" s="1" t="n">
         <v>1</v>
@@ -8405,16 +7717,16 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1" t="s">
-        <v>781</v>
+        <v>668</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>782</v>
+        <v>669</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>783</v>
+        <v>670</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>784</v>
+        <v>671</v>
       </c>
       <c r="Q76" s="1" t="n">
         <v>0</v>
@@ -8423,15 +7735,11 @@
         <v>40</v>
       </c>
       <c r="S76" s="1"/>
-      <c r="T76" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="U76" s="1" t="s">
-        <v>786</v>
-      </c>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
       <c r="V76" s="1"/>
       <c r="W76" s="1" t="s">
-        <v>787</v>
+        <v>672</v>
       </c>
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
@@ -8440,27 +7748,27 @@
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
     </row>
-    <row r="77" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>788</v>
+        <v>673</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D77" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>526</v>
+        <v>458</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>789</v>
+        <v>674</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H77" s="1" t="n">
         <v>1</v>
@@ -8468,18 +7776,18 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1" t="s">
-        <v>790</v>
+        <v>675</v>
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1" t="s">
-        <v>791</v>
+        <v>676</v>
       </c>
       <c r="N77" s="1"/>
       <c r="O77" s="1" t="s">
-        <v>792</v>
+        <v>677</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>793</v>
+        <v>678</v>
       </c>
       <c r="Q77" s="1" t="n">
         <v>0</v>
@@ -8488,35 +7796,31 @@
         <v>40</v>
       </c>
       <c r="S77" s="1"/>
-      <c r="T77" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="U77" s="1" t="s">
-        <v>795</v>
-      </c>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
       <c r="X77" s="1" t="s">
-        <v>422</v>
+        <v>373</v>
       </c>
       <c r="Y77" s="1"/>
       <c r="Z77" s="1" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="AA77" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AB77" s="1"/>
       <c r="AC77" s="1" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="242.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>797</v>
+        <v>680</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>31</v>
@@ -8525,38 +7829,38 @@
         <v>1</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>798</v>
+        <v>681</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H78" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>799</v>
+        <v>682</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>800</v>
+        <v>683</v>
       </c>
       <c r="K78" s="1"/>
       <c r="L78" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>801</v>
+        <v>684</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>802</v>
+        <v>685</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>803</v>
+        <v>686</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>804</v>
+        <v>687</v>
       </c>
       <c r="Q78" s="1" t="n">
         <v>0</v>
@@ -8565,43 +7869,39 @@
         <v>40</v>
       </c>
       <c r="S78" s="1"/>
-      <c r="T78" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="U78" s="1" t="s">
-        <v>806</v>
-      </c>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
       <c r="Y78" s="1" t="s">
-        <v>399</v>
+        <v>353</v>
       </c>
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="255.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>807</v>
+        <v>688</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D79" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>808</v>
+        <v>689</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>809</v>
+        <v>690</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1" t="n">
@@ -8611,19 +7911,19 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>810</v>
+        <v>691</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>811</v>
+        <v>692</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>812</v>
+        <v>693</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>813</v>
+        <v>694</v>
       </c>
       <c r="Q79" s="1" t="n">
         <v>0</v>
@@ -8633,70 +7933,68 @@
       </c>
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
-      <c r="U79" s="1" t="s">
-        <v>814</v>
-      </c>
+      <c r="U79" s="1"/>
       <c r="V79" s="1"/>
       <c r="W79" s="1" t="s">
-        <v>615</v>
+        <v>532</v>
       </c>
       <c r="X79" s="1"/>
       <c r="Y79" s="1" t="s">
-        <v>815</v>
+        <v>695</v>
       </c>
       <c r="Z79" s="1" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="AA79" s="1" t="s">
-        <v>816</v>
+        <v>696</v>
       </c>
       <c r="AB79" s="1" t="s">
-        <v>519</v>
+        <v>454</v>
       </c>
       <c r="AC79" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>818</v>
+        <v>698</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D80" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>819</v>
+        <v>699</v>
       </c>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1" t="s">
-        <v>820</v>
+        <v>700</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>821</v>
+        <v>701</v>
       </c>
       <c r="O80" s="1"/>
       <c r="P80" s="1" t="s">
-        <v>822</v>
+        <v>702</v>
       </c>
       <c r="Q80" s="1" t="n">
         <v>0</v>
@@ -8706,32 +8004,30 @@
       </c>
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
-      <c r="U80" s="1" t="s">
-        <v>823</v>
-      </c>
+      <c r="U80" s="1"/>
       <c r="V80" s="1"/>
       <c r="W80" s="1" t="s">
-        <v>824</v>
+        <v>703</v>
       </c>
       <c r="X80" s="1" t="s">
-        <v>825</v>
+        <v>704</v>
       </c>
       <c r="Y80" s="1" t="s">
-        <v>469</v>
+        <v>412</v>
       </c>
       <c r="Z80" s="1"/>
       <c r="AA80" s="1" t="s">
-        <v>508</v>
+        <v>444</v>
       </c>
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
     </row>
-    <row r="81" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>826</v>
+        <v>705</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>31</v>
@@ -8740,13 +8036,13 @@
         <v>0</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>827</v>
+        <v>706</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>572</v>
+        <v>495</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="H81" s="1" t="n">
         <v>0</v>
@@ -8756,16 +8052,16 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1" t="s">
-        <v>828</v>
+        <v>707</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>829</v>
+        <v>708</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>830</v>
+        <v>709</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>831</v>
+        <v>710</v>
       </c>
       <c r="Q81" s="1" t="n">
         <v>0</v>
@@ -8773,32 +8069,28 @@
       <c r="R81" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S81" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="T81" s="1" t="s">
-        <v>833</v>
-      </c>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
       <c r="U81" s="1"/>
       <c r="V81" s="1"/>
       <c r="W81" s="1" t="s">
-        <v>827</v>
+        <v>706</v>
       </c>
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
       <c r="AB81" s="1" t="s">
-        <v>834</v>
+        <v>711</v>
       </c>
       <c r="AC81" s="1"/>
     </row>
-    <row r="82" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>835</v>
+        <v>712</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>31</v>
@@ -8807,13 +8099,13 @@
         <v>0</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>836</v>
+        <v>713</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>837</v>
+        <v>714</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H82" s="1" t="n">
         <v>0</v>
@@ -8823,14 +8115,14 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1" t="s">
-        <v>838</v>
+        <v>715</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>839</v>
+        <v>716</v>
       </c>
       <c r="O82" s="1"/>
       <c r="P82" s="1" t="s">
-        <v>840</v>
+        <v>717</v>
       </c>
       <c r="Q82" s="1" t="n">
         <v>0</v>
@@ -8839,29 +8131,27 @@
         <v>40</v>
       </c>
       <c r="S82" s="1"/>
-      <c r="T82" s="1" t="s">
-        <v>841</v>
-      </c>
+      <c r="T82" s="1"/>
       <c r="U82" s="1"/>
       <c r="V82" s="1" t="s">
-        <v>628</v>
+        <v>542</v>
       </c>
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
       <c r="Y82" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
       <c r="AC82" s="1"/>
     </row>
-    <row r="83" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>842</v>
+        <v>718</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>31</v>
@@ -8870,34 +8160,34 @@
         <v>1</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>843</v>
+        <v>719</v>
       </c>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1" t="s">
-        <v>844</v>
+        <v>720</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>845</v>
+        <v>721</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>846</v>
+        <v>722</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>847</v>
+        <v>723</v>
       </c>
       <c r="Q83" s="1" t="n">
         <v>0</v>
@@ -8907,30 +8197,28 @@
       </c>
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
-      <c r="U83" s="1" t="s">
-        <v>848</v>
-      </c>
+      <c r="U83" s="1"/>
       <c r="V83" s="1" t="s">
-        <v>849</v>
+        <v>724</v>
       </c>
       <c r="W83" s="1"/>
       <c r="X83" s="1" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
       <c r="AC83" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="267.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>850</v>
+        <v>725</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>31</v>
@@ -8939,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>851</v>
+        <v>726</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H84" s="1" t="n">
         <v>1</v>
@@ -8953,18 +8241,18 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>852</v>
+        <v>727</v>
       </c>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1" t="s">
-        <v>853</v>
+        <v>728</v>
       </c>
       <c r="Q84" s="1" t="n">
         <v>0</v>
@@ -8973,71 +8261,67 @@
         <v>40</v>
       </c>
       <c r="S84" s="1"/>
-      <c r="T84" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="U84" s="1" t="s">
-        <v>855</v>
-      </c>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
       <c r="V84" s="1" t="s">
-        <v>856</v>
+        <v>729</v>
       </c>
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
       <c r="Z84" s="1" t="s">
-        <v>630</v>
+        <v>544</v>
       </c>
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
       <c r="AC84" s="1"/>
     </row>
-    <row r="85" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>857</v>
+        <v>730</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D85" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>589</v>
+        <v>510</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>858</v>
+        <v>731</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H85" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>859</v>
+        <v>732</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>860</v>
+        <v>733</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1" t="s">
-        <v>861</v>
+        <v>734</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>862</v>
+        <v>735</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>863</v>
+        <v>736</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>864</v>
+        <v>737</v>
       </c>
       <c r="Q85" s="1" t="n">
         <v>0</v>
@@ -9046,17 +8330,13 @@
         <v>40</v>
       </c>
       <c r="S85" s="1"/>
-      <c r="T85" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="U85" s="1" t="s">
-        <v>866</v>
-      </c>
+      <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
       <c r="V85" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
@@ -9065,12 +8345,12 @@
       <c r="AB85" s="1"/>
       <c r="AC85" s="1"/>
     </row>
-    <row r="86" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>867</v>
+        <v>738</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>31</v>
@@ -9079,13 +8359,13 @@
         <v>0</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="H86" s="1" t="n">
         <v>1</v>
@@ -9095,16 +8375,16 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1" t="s">
-        <v>868</v>
+        <v>739</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>869</v>
+        <v>740</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>870</v>
+        <v>741</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>871</v>
+        <v>742</v>
       </c>
       <c r="Q86" s="1" t="n">
         <v>0</v>
@@ -9113,15 +8393,11 @@
         <v>40</v>
       </c>
       <c r="S86" s="1"/>
-      <c r="T86" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="U86" s="1" t="s">
-        <v>873</v>
-      </c>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
       <c r="V86" s="1"/>
       <c r="W86" s="1" t="s">
-        <v>874</v>
+        <v>743</v>
       </c>
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
@@ -9130,12 +8406,12 @@
       <c r="AB86" s="1"/>
       <c r="AC86" s="1"/>
     </row>
-    <row r="87" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="217.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>875</v>
+        <v>744</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>31</v>
@@ -9144,31 +8420,31 @@
         <v>1</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>588</v>
+        <v>509</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>876</v>
+        <v>745</v>
       </c>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1" t="s">
-        <v>877</v>
+        <v>746</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>878</v>
+        <v>747</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>879</v>
+        <v>748</v>
       </c>
       <c r="P87" s="1"/>
       <c r="Q87" s="1" t="n">
@@ -9177,13 +8453,11 @@
       <c r="R87" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S87" s="1" t="s">
-        <v>880</v>
-      </c>
+      <c r="S87" s="1"/>
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
       <c r="V87" s="1" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
@@ -9192,12 +8466,12 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
       <c r="AC87" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>881</v>
+        <v>749</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>30</v>
@@ -9209,13 +8483,13 @@
         <v>1</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>479</v>
+        <v>419</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="H88" s="1" t="n">
         <v>0</v>
@@ -9225,16 +8499,16 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1" t="s">
-        <v>882</v>
+        <v>750</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>883</v>
+        <v>751</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>884</v>
+        <v>752</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>885</v>
+        <v>753</v>
       </c>
       <c r="Q88" s="1" t="n">
         <v>0</v>
@@ -9243,33 +8517,29 @@
         <v>40</v>
       </c>
       <c r="S88" s="1"/>
-      <c r="T88" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="U88" s="1" t="s">
-        <v>887</v>
-      </c>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
       <c r="V88" s="1"/>
       <c r="W88" s="1"/>
       <c r="X88" s="1" t="s">
-        <v>508</v>
+        <v>444</v>
       </c>
       <c r="Y88" s="1"/>
       <c r="Z88" s="1" t="s">
-        <v>799</v>
+        <v>682</v>
       </c>
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
       <c r="AC88" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="255.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>888</v>
+        <v>754</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>31</v>
@@ -9278,13 +8548,13 @@
         <v>0</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>508</v>
+        <v>444</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H89" s="1" t="n">
         <v>1</v>
@@ -9292,18 +8562,18 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1" t="s">
-        <v>889</v>
+        <v>755</v>
       </c>
       <c r="L89" s="1"/>
       <c r="M89" s="1" t="s">
-        <v>890</v>
+        <v>756</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>891</v>
+        <v>757</v>
       </c>
       <c r="O89" s="1"/>
       <c r="P89" s="1" t="s">
-        <v>892</v>
+        <v>758</v>
       </c>
       <c r="Q89" s="1" t="n">
         <v>0</v>
@@ -9312,12 +8582,8 @@
         <v>40</v>
       </c>
       <c r="S89" s="1"/>
-      <c r="T89" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="U89" s="1" t="s">
-        <v>894</v>
-      </c>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
       <c r="V89" s="1"/>
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
@@ -9326,51 +8592,51 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
       <c r="AC89" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>895</v>
+        <v>759</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D90" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>679</v>
+        <v>582</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>697</v>
+        <v>598</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>896</v>
+        <v>760</v>
       </c>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1" t="s">
-        <v>897</v>
+        <v>761</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>898</v>
+        <v>762</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>899</v>
+        <v>763</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>900</v>
+        <v>764</v>
       </c>
       <c r="Q90" s="1" t="n">
         <v>0</v>
@@ -9383,39 +8649,39 @@
       <c r="U90" s="1"/>
       <c r="V90" s="1"/>
       <c r="W90" s="1" t="s">
-        <v>901</v>
+        <v>765</v>
       </c>
       <c r="X90" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
       <c r="AA90" s="1" t="s">
-        <v>902</v>
+        <v>766</v>
       </c>
       <c r="AB90" s="1"/>
       <c r="AC90" s="1" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>904</v>
+        <v>768</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D91" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>422</v>
+        <v>373</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>34</v>
@@ -9427,19 +8693,19 @@
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>905</v>
+        <v>769</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>906</v>
+        <v>770</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>907</v>
+        <v>771</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>908</v>
+        <v>772</v>
       </c>
       <c r="Q91" s="1" t="n">
         <v>0</v>
@@ -9448,14 +8714,10 @@
         <v>40</v>
       </c>
       <c r="S91" s="1"/>
-      <c r="T91" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="U91" s="1" t="s">
-        <v>910</v>
-      </c>
+      <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
       <c r="V91" s="1" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
@@ -9463,31 +8725,31 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
       <c r="AB91" s="1" t="s">
-        <v>619</v>
+        <v>536</v>
       </c>
       <c r="AC91" s="1"/>
     </row>
-    <row r="92" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="204.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>911</v>
+        <v>773</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D92" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>912</v>
+        <v>774</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H92" s="1" t="n">
         <v>0</v>
@@ -9497,14 +8759,14 @@
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1" t="s">
-        <v>913</v>
+        <v>775</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>914</v>
+        <v>776</v>
       </c>
       <c r="O92" s="1"/>
       <c r="P92" s="1" t="s">
-        <v>915</v>
+        <v>777</v>
       </c>
       <c r="Q92" s="1" t="n">
         <v>0</v>
@@ -9513,31 +8775,29 @@
         <v>40</v>
       </c>
       <c r="S92" s="1"/>
-      <c r="T92" s="1" t="s">
-        <v>916</v>
-      </c>
+      <c r="T92" s="1"/>
       <c r="U92" s="1"/>
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
       <c r="X92" s="1" t="s">
-        <v>917</v>
+        <v>778</v>
       </c>
       <c r="Y92" s="1" t="s">
-        <v>918</v>
+        <v>779</v>
       </c>
       <c r="Z92" s="1"/>
       <c r="AA92" s="1" t="s">
-        <v>919</v>
+        <v>780</v>
       </c>
       <c r="AB92" s="1"/>
       <c r="AC92" s="1"/>
     </row>
-    <row r="93" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>920</v>
+        <v>781</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>31</v>
@@ -9546,36 +8806,36 @@
         <v>0</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>717</v>
+        <v>615</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>921</v>
+        <v>782</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H93" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>922</v>
+        <v>783</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>923</v>
+        <v>784</v>
       </c>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1" t="s">
-        <v>924</v>
+        <v>785</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>925</v>
+        <v>786</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>926</v>
+        <v>787</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>927</v>
+        <v>788</v>
       </c>
       <c r="Q93" s="1" t="n">
         <v>0</v>
@@ -9583,18 +8843,12 @@
       <c r="R93" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S93" s="1" t="s">
-        <v>928</v>
-      </c>
-      <c r="T93" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="U93" s="1" t="s">
-        <v>930</v>
-      </c>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
       <c r="V93" s="1"/>
       <c r="W93" s="1" t="s">
-        <v>931</v>
+        <v>789</v>
       </c>
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
@@ -9603,48 +8857,48 @@
       <c r="AB93" s="1"/>
       <c r="AC93" s="1"/>
     </row>
-    <row r="94" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>932</v>
+        <v>790</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D94" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>933</v>
+        <v>791</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H94" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>934</v>
+        <v>792</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>935</v>
+        <v>793</v>
       </c>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1" t="s">
-        <v>936</v>
+        <v>794</v>
       </c>
       <c r="N94" s="1"/>
       <c r="O94" s="1" t="s">
-        <v>937</v>
+        <v>795</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>938</v>
+        <v>796</v>
       </c>
       <c r="Q94" s="1" t="n">
         <v>0</v>
@@ -9652,51 +8906,45 @@
       <c r="R94" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S94" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="T94" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="U94" s="1" t="s">
-        <v>941</v>
-      </c>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
       <c r="X94" s="1" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="Y94" s="1" t="s">
-        <v>942</v>
+        <v>797</v>
       </c>
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
       <c r="AB94" s="1" t="s">
-        <v>632</v>
+        <v>546</v>
       </c>
       <c r="AC94" s="1"/>
     </row>
-    <row r="95" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="255.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>943</v>
+        <v>798</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D95" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>371</v>
+        <v>329</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H95" s="1" t="n">
         <v>0</v>
@@ -9706,16 +8954,16 @@
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1" t="s">
-        <v>944</v>
+        <v>799</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>945</v>
+        <v>800</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>946</v>
+        <v>801</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>947</v>
+        <v>802</v>
       </c>
       <c r="Q95" s="1" t="n">
         <v>0</v>
@@ -9724,69 +8972,65 @@
         <v>40</v>
       </c>
       <c r="S95" s="1"/>
-      <c r="T95" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="U95" s="1" t="s">
-        <v>949</v>
-      </c>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
       <c r="V95" s="1"/>
       <c r="W95" s="1"/>
       <c r="X95" s="1" t="s">
-        <v>950</v>
+        <v>803</v>
       </c>
       <c r="Y95" s="1" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="Z95" s="1" t="s">
-        <v>651</v>
+        <v>561</v>
       </c>
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
       <c r="AC95" s="1"/>
     </row>
-    <row r="96" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>951</v>
+        <v>804</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D96" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>558</v>
+        <v>484</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>547</v>
+        <v>476</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H96" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>537</v>
+        <v>468</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>952</v>
+        <v>805</v>
       </c>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1" t="s">
-        <v>953</v>
+        <v>806</v>
       </c>
       <c r="N96" s="1"/>
       <c r="O96" s="1" t="s">
-        <v>954</v>
+        <v>807</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>955</v>
+        <v>808</v>
       </c>
       <c r="Q96" s="1" t="n">
         <v>0</v>
@@ -9795,37 +9039,35 @@
         <v>40</v>
       </c>
       <c r="S96" s="1"/>
-      <c r="T96" s="1" t="s">
-        <v>956</v>
-      </c>
+      <c r="T96" s="1"/>
       <c r="U96" s="1"/>
       <c r="V96" s="1" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>957</v>
+        <v>809</v>
       </c>
       <c r="X96" s="1" t="s">
-        <v>958</v>
+        <v>810</v>
       </c>
       <c r="Y96" s="1" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="Z96" s="1"/>
       <c r="AA96" s="1" t="s">
-        <v>959</v>
+        <v>811</v>
       </c>
       <c r="AB96" s="1" t="s">
-        <v>717</v>
+        <v>615</v>
       </c>
       <c r="AC96" s="1"/>
     </row>
-    <row r="97" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>960</v>
+        <v>812</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>31</v>
@@ -9834,36 +9076,36 @@
         <v>0</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>745</v>
+        <v>638</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="H97" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>961</v>
+        <v>813</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>962</v>
+        <v>814</v>
       </c>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1" t="s">
-        <v>963</v>
+        <v>815</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>964</v>
+        <v>816</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>965</v>
+        <v>817</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>966</v>
+        <v>818</v>
       </c>
       <c r="Q97" s="1" t="n">
         <v>0</v>
@@ -9872,50 +9114,46 @@
         <v>40</v>
       </c>
       <c r="S97" s="1"/>
-      <c r="T97" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="U97" s="1" t="s">
-        <v>968</v>
-      </c>
+      <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
       <c r="V97" s="1" t="s">
-        <v>969</v>
+        <v>819</v>
       </c>
       <c r="W97" s="1"/>
       <c r="X97" s="1" t="s">
-        <v>970</v>
+        <v>820</v>
       </c>
       <c r="Y97" s="1"/>
       <c r="Z97" s="1" t="s">
-        <v>787</v>
+        <v>672</v>
       </c>
       <c r="AA97" s="1" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AB97" s="1"/>
       <c r="AC97" s="1"/>
     </row>
-    <row r="98" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>971</v>
+        <v>821</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D98" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>950</v>
+        <v>803</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>972</v>
+        <v>822</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H98" s="1" t="n">
         <v>0</v>
@@ -9924,19 +9162,19 @@
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>973</v>
+        <v>823</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>974</v>
+        <v>824</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>975</v>
+        <v>825</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>976</v>
+        <v>826</v>
       </c>
       <c r="Q98" s="1" t="n">
         <v>0</v>
@@ -9945,28 +9183,24 @@
         <v>40</v>
       </c>
       <c r="S98" s="1"/>
-      <c r="T98" s="1" t="s">
-        <v>977</v>
-      </c>
-      <c r="U98" s="1" t="s">
-        <v>978</v>
-      </c>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
       <c r="V98" s="1"/>
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
       <c r="Y98" s="1" t="s">
-        <v>979</v>
+        <v>827</v>
       </c>
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
       <c r="AC98" s="1" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="153.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>981</v>
+        <v>829</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>30</v>
@@ -9978,10 +9212,10 @@
         <v>0</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>982</v>
+        <v>830</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>536</v>
+        <v>467</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>34</v>
@@ -9994,13 +9228,13 @@
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1" t="s">
-        <v>983</v>
+        <v>831</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>984</v>
+        <v>832</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>985</v>
+        <v>833</v>
       </c>
       <c r="P99" s="1"/>
       <c r="Q99" s="1" t="n">
@@ -10010,30 +9244,28 @@
         <v>40</v>
       </c>
       <c r="S99" s="1"/>
-      <c r="T99" s="1" t="s">
-        <v>986</v>
-      </c>
+      <c r="T99" s="1"/>
       <c r="U99" s="1"/>
       <c r="V99" s="1" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="W99" s="1"/>
       <c r="X99" s="1" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="Y99" s="1" t="s">
-        <v>647</v>
+        <v>559</v>
       </c>
       <c r="Z99" s="1" t="s">
-        <v>934</v>
+        <v>792</v>
       </c>
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
       <c r="AC99" s="1"/>
     </row>
-    <row r="100" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="141" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>987</v>
+        <v>834</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>30</v>
@@ -10045,13 +9277,13 @@
         <v>1</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>902</v>
+        <v>766</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>988</v>
+        <v>835</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="H100" s="1" t="n">
         <v>1</v>
@@ -10061,16 +9293,16 @@
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1" t="s">
-        <v>989</v>
+        <v>836</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>990</v>
+        <v>837</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>991</v>
+        <v>838</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>992</v>
+        <v>839</v>
       </c>
       <c r="Q100" s="1" t="n">
         <v>0</v>
@@ -10079,47 +9311,43 @@
         <v>40</v>
       </c>
       <c r="S100" s="1"/>
-      <c r="T100" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="U100" s="1" t="s">
-        <v>994</v>
-      </c>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
       <c r="V100" s="1"/>
       <c r="W100" s="1" t="s">
-        <v>726</v>
+        <v>623</v>
       </c>
       <c r="X100" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
       <c r="AA100" s="1" t="s">
-        <v>851</v>
+        <v>726</v>
       </c>
       <c r="AB100" s="1" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="AC100" s="1"/>
     </row>
-    <row r="101" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>995</v>
+        <v>840</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D101" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>933</v>
+        <v>791</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1" t="n">
@@ -10129,17 +9357,17 @@
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>996</v>
+        <v>841</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>997</v>
+        <v>842</v>
       </c>
       <c r="O101" s="1"/>
       <c r="P101" s="1" t="s">
-        <v>998</v>
+        <v>843</v>
       </c>
       <c r="Q101" s="1" t="n">
         <v>0</v>
@@ -10154,15 +9382,15 @@
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
       <c r="Y101" s="1" t="s">
-        <v>999</v>
+        <v>844</v>
       </c>
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
       <c r="AB101" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AC101" s="1" t="s">
-        <v>1000</v>
+        <v>845</v>
       </c>
     </row>
   </sheetData>
